--- a/Project Summary.xlsx
+++ b/Project Summary.xlsx
@@ -2472,12 +2472,22 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S113" totalsRowShown="0">
   <autoFilter ref="A1:S113">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="findbugs"/>
+        <filter val="gt2"/>
+        <filter val="netbeans"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="A2:S112">
+    <sortCondition descending="1" ref="K1:K113"/>
+  </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="system"/>
     <tableColumn id="2" name="status"/>
@@ -2792,19 +2802,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="81.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="81.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" hidden="1" customWidth="1"/>
@@ -2878,299 +2888,299 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>513</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>514</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>515</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>516</v>
       </c>
       <c r="K2" s="1">
-        <v>41052</v>
+        <v>41445</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>517</v>
       </c>
       <c r="M2">
-        <v>1290</v>
+        <v>867</v>
       </c>
       <c r="N2">
-        <v>1290</v>
+        <v>867</v>
       </c>
       <c r="O2">
-        <v>846</v>
+        <v>272</v>
       </c>
       <c r="P2">
-        <v>850</v>
+        <v>272</v>
       </c>
       <c r="Q2">
-        <v>217198</v>
+        <v>73981</v>
       </c>
       <c r="R2">
-        <v>105007</v>
+        <v>48842</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="1">
-        <v>41296</v>
+        <v>41430</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>188</v>
       </c>
       <c r="M3">
-        <v>608</v>
+        <v>34890</v>
       </c>
       <c r="N3">
-        <v>385</v>
+        <v>33874</v>
       </c>
       <c r="O3">
-        <v>325</v>
+        <v>19012</v>
       </c>
       <c r="P3">
-        <v>395</v>
+        <v>19445</v>
       </c>
       <c r="Q3">
-        <v>42221</v>
+        <v>4107804</v>
       </c>
       <c r="R3">
-        <v>21919</v>
+        <v>2442717</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K4" s="1">
-        <v>40181</v>
+        <v>41417</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="M4">
-        <v>863</v>
+        <v>3885</v>
       </c>
       <c r="N4">
-        <v>862</v>
+        <v>3614</v>
       </c>
       <c r="O4">
-        <v>478</v>
+        <v>2587</v>
       </c>
       <c r="P4">
-        <v>485</v>
+        <v>2797</v>
       </c>
       <c r="Q4">
-        <v>151006</v>
+        <v>381426</v>
       </c>
       <c r="R4">
-        <v>111725</v>
+        <v>217163</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>546</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>547</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>548</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>549</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>550</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="1">
-        <v>40892</v>
+        <v>41391</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>551</v>
       </c>
       <c r="M5">
-        <v>2669</v>
+        <v>3729</v>
       </c>
       <c r="N5">
-        <v>2560</v>
+        <v>3729</v>
       </c>
       <c r="O5">
-        <v>1888</v>
+        <v>2103</v>
       </c>
       <c r="P5">
-        <v>1952</v>
+        <v>2116</v>
       </c>
       <c r="Q5">
-        <v>383483</v>
+        <v>449614</v>
       </c>
       <c r="R5">
-        <v>192410</v>
+        <v>285804</v>
       </c>
       <c r="S5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>771</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>772</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>773</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>774</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>775</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K6" s="1">
-        <v>40364</v>
+        <v>41326</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>776</v>
       </c>
       <c r="M6">
-        <v>2665</v>
+        <v>2392</v>
       </c>
       <c r="N6">
-        <v>2624</v>
+        <v>2390</v>
       </c>
       <c r="O6">
-        <v>1973</v>
+        <v>1047</v>
       </c>
       <c r="P6">
-        <v>2001</v>
+        <v>1050</v>
       </c>
       <c r="Q6">
-        <v>591451</v>
+        <v>470359</v>
       </c>
       <c r="R6">
-        <v>412394</v>
+        <v>247805</v>
       </c>
       <c r="S6" t="s">
-        <v>62</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3232,63 +3242,63 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>443</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>444</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="1">
-        <v>41260</v>
+        <v>41302</v>
       </c>
       <c r="L8" t="s">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="M8">
-        <v>7680</v>
+        <v>1148</v>
       </c>
       <c r="N8">
-        <v>7680</v>
+        <v>1143</v>
       </c>
       <c r="O8">
-        <v>2909</v>
+        <v>888</v>
       </c>
       <c r="P8">
-        <v>2909</v>
+        <v>894</v>
       </c>
       <c r="Q8">
-        <v>773040</v>
+        <v>159605</v>
       </c>
       <c r="R8">
-        <v>484739</v>
+        <v>90612</v>
       </c>
       <c r="S8" t="s">
-        <v>79</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3350,142 +3360,142 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K10" s="1">
-        <v>38611</v>
+        <v>41296</v>
       </c>
       <c r="L10" t="s">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="N10">
-        <v>586</v>
+        <v>385</v>
       </c>
       <c r="O10">
-        <v>543</v>
+        <v>325</v>
       </c>
       <c r="P10">
-        <v>544</v>
+        <v>395</v>
       </c>
       <c r="Q10">
-        <v>148067</v>
+        <v>42221</v>
       </c>
       <c r="R10">
-        <v>81306</v>
+        <v>21919</v>
       </c>
       <c r="S10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="J11" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K11" s="1">
-        <v>40181</v>
+        <v>41281</v>
       </c>
       <c r="L11" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="M11">
-        <v>1663</v>
+        <v>1310</v>
       </c>
       <c r="N11">
-        <v>1327</v>
+        <v>1310</v>
       </c>
       <c r="O11">
-        <v>1173</v>
+        <v>630</v>
       </c>
       <c r="P11">
-        <v>1309</v>
+        <v>631</v>
       </c>
       <c r="Q11">
-        <v>240100</v>
+        <v>184152</v>
       </c>
       <c r="R11">
-        <v>115543</v>
+        <v>100748</v>
       </c>
       <c r="S11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
         <v>68</v>
@@ -3494,160 +3504,160 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K12" s="1">
-        <v>40416</v>
+        <v>41260</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="M12">
-        <v>2184</v>
+        <v>7680</v>
       </c>
       <c r="N12">
-        <v>2171</v>
+        <v>7680</v>
       </c>
       <c r="O12">
-        <v>1468</v>
+        <v>2909</v>
       </c>
       <c r="P12">
-        <v>1482</v>
+        <v>2909</v>
       </c>
       <c r="Q12">
-        <v>221029</v>
+        <v>773040</v>
       </c>
       <c r="R12">
-        <v>127529</v>
+        <v>484739</v>
       </c>
       <c r="S12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>532</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>533</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>534</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>535</v>
       </c>
       <c r="G13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>536</v>
       </c>
       <c r="J13" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K13" s="1">
-        <v>40225</v>
+        <v>41229</v>
       </c>
       <c r="L13" t="s">
-        <v>116</v>
+        <v>537</v>
       </c>
       <c r="M13">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="N13">
-        <v>349</v>
+        <v>221</v>
       </c>
       <c r="O13">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="P13">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="Q13">
-        <v>47226</v>
+        <v>13359</v>
       </c>
       <c r="R13">
-        <v>23316</v>
+        <v>7428</v>
       </c>
       <c r="S13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K14" s="1">
-        <v>40240</v>
+        <v>41052</v>
       </c>
       <c r="L14" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>1290</v>
       </c>
       <c r="N14">
-        <v>122</v>
+        <v>1290</v>
       </c>
       <c r="O14">
-        <v>99</v>
+        <v>846</v>
       </c>
       <c r="P14">
-        <v>99</v>
+        <v>850</v>
       </c>
       <c r="Q14">
-        <v>63030</v>
+        <v>217198</v>
       </c>
       <c r="R14">
-        <v>51860</v>
+        <v>105007</v>
       </c>
       <c r="S14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>267</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -3656,52 +3666,52 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>127</v>
+        <v>268</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>270</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>271</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15" s="1">
-        <v>39553</v>
+        <v>40904</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="M15">
-        <v>458</v>
+        <v>2116</v>
       </c>
       <c r="N15">
-        <v>458</v>
+        <v>2069</v>
       </c>
       <c r="O15">
+        <v>1045</v>
+      </c>
+      <c r="P15">
+        <v>1078</v>
+      </c>
+      <c r="Q15">
+        <v>237803</v>
+      </c>
+      <c r="R15">
+        <v>142790</v>
+      </c>
+      <c r="S15" t="s">
         <v>273</v>
-      </c>
-      <c r="P15">
-        <v>274</v>
-      </c>
-      <c r="Q15">
-        <v>63852</v>
-      </c>
-      <c r="R15">
-        <v>27635</v>
-      </c>
-      <c r="S15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3822,142 +3832,142 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>52</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K18" s="1">
-        <v>40330</v>
+        <v>40892</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="M18">
-        <v>2536</v>
+        <v>2669</v>
       </c>
       <c r="N18">
-        <v>2534</v>
+        <v>2560</v>
       </c>
       <c r="O18">
-        <v>2333</v>
+        <v>1888</v>
       </c>
       <c r="P18">
-        <v>2347</v>
+        <v>1952</v>
       </c>
       <c r="Q18">
-        <v>676766</v>
+        <v>383483</v>
       </c>
       <c r="R18">
-        <v>400257</v>
+        <v>192410</v>
       </c>
       <c r="S18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>757</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>158</v>
+        <v>758</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>759</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>760</v>
       </c>
       <c r="G19" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>761</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19" s="1">
-        <v>40315</v>
+        <v>40777</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>762</v>
       </c>
       <c r="M19">
-        <v>2995</v>
+        <v>724</v>
       </c>
       <c r="N19">
-        <v>2995</v>
+        <v>724</v>
       </c>
       <c r="O19">
-        <v>2467</v>
+        <v>569</v>
       </c>
       <c r="P19">
-        <v>2503</v>
+        <v>569</v>
       </c>
       <c r="Q19">
-        <v>1062189</v>
+        <v>92502</v>
       </c>
       <c r="R19">
-        <v>592817</v>
+        <v>49933</v>
       </c>
       <c r="S19" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s">
         <v>51</v>
@@ -3966,37 +3976,37 @@
         <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="J20" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K20" s="1">
-        <v>39809</v>
+        <v>40593</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="M20">
-        <v>131</v>
+        <v>1114</v>
       </c>
       <c r="N20">
-        <v>131</v>
+        <v>912</v>
       </c>
       <c r="O20">
-        <v>118</v>
+        <v>415</v>
       </c>
       <c r="P20">
-        <v>118</v>
+        <v>618</v>
       </c>
       <c r="Q20">
-        <v>23247</v>
+        <v>80286</v>
       </c>
       <c r="R20">
-        <v>11832</v>
+        <v>50198</v>
       </c>
       <c r="S20" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -4058,127 +4068,127 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>703</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>704</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>705</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>706</v>
       </c>
       <c r="G22" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>707</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="1">
-        <v>40434</v>
+        <v>40471</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>708</v>
       </c>
       <c r="M22">
-        <v>3877</v>
+        <v>3398</v>
       </c>
       <c r="N22">
-        <v>1866</v>
+        <v>3089</v>
       </c>
       <c r="O22">
-        <v>467</v>
+        <v>2442</v>
       </c>
       <c r="P22">
-        <v>1280</v>
+        <v>2745</v>
       </c>
       <c r="Q22">
-        <v>117066</v>
+        <v>369268</v>
       </c>
       <c r="R22">
-        <v>62380</v>
+        <v>160302</v>
       </c>
       <c r="S22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>184</v>
+        <v>560</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>561</v>
       </c>
       <c r="E23" t="s">
-        <v>186</v>
+        <v>562</v>
       </c>
       <c r="F23" t="s">
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>187</v>
+        <v>563</v>
       </c>
       <c r="J23" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K23" s="1">
-        <v>41430</v>
+        <v>40455</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>564</v>
       </c>
       <c r="M23">
-        <v>34890</v>
+        <v>846</v>
       </c>
       <c r="N23">
-        <v>33874</v>
+        <v>697</v>
       </c>
       <c r="O23">
-        <v>19012</v>
+        <v>602</v>
       </c>
       <c r="P23">
-        <v>19445</v>
+        <v>744</v>
       </c>
       <c r="Q23">
-        <v>4107804</v>
+        <v>86278</v>
       </c>
       <c r="R23">
-        <v>2442717</v>
+        <v>54336</v>
       </c>
       <c r="S23" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -4187,52 +4197,52 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>191</v>
+        <v>581</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>582</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>583</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>584</v>
       </c>
       <c r="J24" t="s">
         <v>44</v>
       </c>
       <c r="K24" s="1">
-        <v>38515</v>
+        <v>40446</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>585</v>
       </c>
       <c r="M24">
-        <v>330</v>
+        <v>1365</v>
       </c>
       <c r="N24">
-        <v>330</v>
+        <v>1365</v>
       </c>
       <c r="O24">
-        <v>194</v>
+        <v>1052</v>
       </c>
       <c r="P24">
-        <v>193</v>
+        <v>1056</v>
       </c>
       <c r="Q24">
-        <v>39237</v>
+        <v>189954</v>
       </c>
       <c r="R24">
-        <v>25806</v>
+        <v>119529</v>
       </c>
       <c r="S24" t="s">
-        <v>196</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -4294,9 +4304,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -4305,52 +4315,52 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>310</v>
       </c>
       <c r="E26" t="s">
-        <v>207</v>
+        <v>311</v>
       </c>
       <c r="F26" t="s">
-        <v>208</v>
+        <v>312</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I26" t="s">
-        <v>209</v>
+        <v>313</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
       <c r="K26" s="1">
-        <v>40046</v>
+        <v>40443</v>
       </c>
       <c r="L26" t="s">
-        <v>210</v>
+        <v>314</v>
       </c>
       <c r="M26">
-        <v>1744</v>
+        <v>3394</v>
       </c>
       <c r="N26">
-        <v>1715</v>
+        <v>3381</v>
       </c>
       <c r="O26">
-        <v>1023</v>
+        <v>1626</v>
       </c>
       <c r="P26">
-        <v>1053</v>
+        <v>1644</v>
       </c>
       <c r="Q26">
-        <v>181840</v>
+        <v>338819</v>
       </c>
       <c r="R26">
-        <v>109096</v>
+        <v>221490</v>
       </c>
       <c r="S26" t="s">
-        <v>211</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -4412,9 +4422,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -4423,116 +4433,116 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="E28" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H28" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28" s="1">
-        <v>40396</v>
+        <v>40434</v>
       </c>
       <c r="L28" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="M28">
-        <v>1290</v>
+        <v>3877</v>
       </c>
       <c r="N28">
-        <v>892</v>
+        <v>1866</v>
       </c>
       <c r="O28">
-        <v>639</v>
+        <v>467</v>
       </c>
       <c r="P28">
-        <v>724</v>
+        <v>1280</v>
       </c>
       <c r="Q28">
-        <v>33379</v>
+        <v>117066</v>
       </c>
       <c r="R28">
-        <v>27539</v>
+        <v>62380</v>
       </c>
       <c r="S28" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="J29" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K29" s="1">
-        <v>41281</v>
+        <v>40423</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="M29">
-        <v>1310</v>
+        <v>5613</v>
       </c>
       <c r="N29">
-        <v>1310</v>
+        <v>5593</v>
       </c>
       <c r="O29">
-        <v>630</v>
+        <v>4058</v>
       </c>
       <c r="P29">
-        <v>631</v>
+        <v>4091</v>
       </c>
       <c r="Q29">
-        <v>184152</v>
+        <v>935549</v>
       </c>
       <c r="R29">
-        <v>100748</v>
+        <v>446863</v>
       </c>
       <c r="S29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>566</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -4541,116 +4551,116 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>567</v>
       </c>
       <c r="E30" t="s">
-        <v>234</v>
+        <v>568</v>
       </c>
       <c r="F30" t="s">
-        <v>235</v>
+        <v>569</v>
       </c>
       <c r="G30" t="s">
-        <v>130</v>
+        <v>228</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I30" t="s">
-        <v>236</v>
+        <v>570</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30" s="1">
-        <v>40274</v>
+        <v>40421</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>571</v>
       </c>
       <c r="M30">
-        <v>147</v>
+        <v>2185</v>
       </c>
       <c r="N30">
-        <v>147</v>
+        <v>2185</v>
       </c>
       <c r="O30">
-        <v>139</v>
+        <v>1656</v>
       </c>
       <c r="P30">
-        <v>139</v>
+        <v>1679</v>
       </c>
       <c r="Q30">
-        <v>29943</v>
+        <v>362260</v>
       </c>
       <c r="R30">
-        <v>23012</v>
+        <v>258957</v>
       </c>
       <c r="S30" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="J31" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K31" s="1">
-        <v>40593</v>
+        <v>40416</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>108</v>
       </c>
       <c r="M31">
-        <v>1114</v>
+        <v>2184</v>
       </c>
       <c r="N31">
-        <v>912</v>
+        <v>2171</v>
       </c>
       <c r="O31">
-        <v>415</v>
+        <v>1468</v>
       </c>
       <c r="P31">
-        <v>618</v>
+        <v>1482</v>
       </c>
       <c r="Q31">
-        <v>80286</v>
+        <v>221029</v>
       </c>
       <c r="R31">
-        <v>50198</v>
+        <v>127529</v>
       </c>
       <c r="S31" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>519</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -4659,116 +4669,116 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>247</v>
+        <v>520</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
+        <v>521</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>522</v>
       </c>
       <c r="G32" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H32" t="s">
         <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>250</v>
+        <v>523</v>
       </c>
       <c r="J32" t="s">
         <v>44</v>
       </c>
       <c r="K32" s="1">
-        <v>38822</v>
+        <v>40415</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>524</v>
       </c>
       <c r="M32">
-        <v>809</v>
+        <v>3686</v>
       </c>
       <c r="N32">
-        <v>790</v>
+        <v>2054</v>
       </c>
       <c r="O32">
-        <v>252</v>
+        <v>1808</v>
       </c>
       <c r="P32">
-        <v>259</v>
+        <v>2952</v>
       </c>
       <c r="Q32">
-        <v>68826</v>
+        <v>644433</v>
       </c>
       <c r="R32">
-        <v>52653</v>
+        <v>397220</v>
       </c>
       <c r="S32" t="s">
-        <v>252</v>
+        <v>525</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>601</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>254</v>
+        <v>602</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>603</v>
       </c>
       <c r="F33" t="s">
-        <v>256</v>
+        <v>604</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I33" t="s">
-        <v>257</v>
+        <v>605</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
       <c r="K33" s="1">
-        <v>39903</v>
+        <v>40413</v>
       </c>
       <c r="L33" t="s">
-        <v>258</v>
+        <v>606</v>
       </c>
       <c r="M33">
-        <v>1058</v>
+        <v>33420</v>
       </c>
       <c r="N33">
-        <v>1058</v>
+        <v>31023</v>
       </c>
       <c r="O33">
-        <v>506</v>
+        <v>12869</v>
       </c>
       <c r="P33">
-        <v>510</v>
+        <v>13453</v>
       </c>
       <c r="Q33">
-        <v>67286</v>
+        <v>3197006</v>
       </c>
       <c r="R33">
-        <v>47051</v>
+        <v>1890536</v>
       </c>
       <c r="S33" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>260</v>
+        <v>492</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -4777,116 +4787,116 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>493</v>
       </c>
       <c r="E34" t="s">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>495</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="H34" t="s">
         <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>264</v>
+        <v>496</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
       </c>
       <c r="K34" s="1">
-        <v>40423</v>
+        <v>40410</v>
       </c>
       <c r="L34" t="s">
-        <v>265</v>
+        <v>497</v>
       </c>
       <c r="M34">
-        <v>5613</v>
+        <v>5068</v>
       </c>
       <c r="N34">
-        <v>5593</v>
+        <v>4664</v>
       </c>
       <c r="O34">
-        <v>4058</v>
+        <v>966</v>
       </c>
       <c r="P34">
-        <v>4091</v>
+        <v>1131</v>
       </c>
       <c r="Q34">
-        <v>935549</v>
+        <v>231162</v>
       </c>
       <c r="R34">
-        <v>446863</v>
+        <v>160360</v>
       </c>
       <c r="S34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>573</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>574</v>
       </c>
       <c r="E35" t="s">
-        <v>269</v>
+        <v>575</v>
       </c>
       <c r="F35" t="s">
-        <v>270</v>
+        <v>576</v>
       </c>
       <c r="G35" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H35" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>271</v>
+        <v>577</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="1">
-        <v>40904</v>
+        <v>40407</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>578</v>
       </c>
       <c r="M35">
-        <v>2116</v>
+        <v>273</v>
       </c>
       <c r="N35">
-        <v>2069</v>
+        <v>273</v>
       </c>
       <c r="O35">
-        <v>1045</v>
+        <v>273</v>
       </c>
       <c r="P35">
-        <v>1078</v>
+        <v>273</v>
       </c>
       <c r="Q35">
-        <v>237803</v>
+        <v>76795</v>
       </c>
       <c r="R35">
-        <v>142790</v>
+        <v>51034</v>
       </c>
       <c r="S35" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>274</v>
+        <v>717</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -4895,173 +4905,173 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>275</v>
+        <v>718</v>
       </c>
       <c r="E36" t="s">
-        <v>276</v>
+        <v>719</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>720</v>
       </c>
       <c r="G36" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H36" t="s">
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>721</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36" s="1">
-        <v>40308</v>
+        <v>40406</v>
       </c>
       <c r="L36" t="s">
-        <v>279</v>
+        <v>722</v>
       </c>
       <c r="M36">
-        <v>706</v>
+        <v>1238</v>
       </c>
       <c r="N36">
-        <v>703</v>
+        <v>1074</v>
       </c>
       <c r="O36">
-        <v>551</v>
+        <v>844</v>
       </c>
       <c r="P36">
-        <v>553</v>
+        <v>1002</v>
       </c>
       <c r="Q36">
-        <v>118415</v>
+        <v>136865</v>
       </c>
       <c r="R36">
-        <v>61681</v>
+        <v>74670</v>
       </c>
       <c r="S36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>281</v>
+        <v>736</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>737</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>738</v>
       </c>
       <c r="F37" t="s">
-        <v>284</v>
+        <v>739</v>
       </c>
       <c r="G37" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="H37" t="s">
         <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>285</v>
+        <v>740</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K37" s="1">
-        <v>41417</v>
+        <v>40401</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>741</v>
       </c>
       <c r="M37">
-        <v>3885</v>
+        <v>1857</v>
       </c>
       <c r="N37">
-        <v>3614</v>
+        <v>1739</v>
       </c>
       <c r="O37">
-        <v>2587</v>
+        <v>1157</v>
       </c>
       <c r="P37">
-        <v>2797</v>
+        <v>1274</v>
       </c>
       <c r="Q37">
-        <v>381426</v>
+        <v>329550</v>
       </c>
       <c r="R37">
-        <v>217163</v>
+        <v>166478</v>
       </c>
       <c r="S37" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="E38" t="s">
-        <v>290</v>
+        <v>220</v>
       </c>
       <c r="F38" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="H38" t="s">
         <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>292</v>
+        <v>222</v>
       </c>
       <c r="J38" t="s">
         <v>44</v>
       </c>
       <c r="K38" s="1">
-        <v>40336</v>
+        <v>40396</v>
       </c>
       <c r="L38" t="s">
-        <v>293</v>
+        <v>223</v>
       </c>
       <c r="M38">
-        <v>535</v>
+        <v>1290</v>
       </c>
       <c r="N38">
-        <v>535</v>
+        <v>892</v>
       </c>
       <c r="O38">
-        <v>388</v>
+        <v>639</v>
       </c>
       <c r="P38">
-        <v>388</v>
+        <v>724</v>
       </c>
       <c r="Q38">
-        <v>228172</v>
+        <v>33379</v>
       </c>
       <c r="R38">
-        <v>123268</v>
+        <v>27539</v>
       </c>
       <c r="S38" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>295</v>
       </c>
@@ -5120,68 +5130,68 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>303</v>
+        <v>437</v>
       </c>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>438</v>
       </c>
       <c r="F40" t="s">
-        <v>305</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H40" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I40" t="s">
-        <v>306</v>
+        <v>439</v>
       </c>
       <c r="J40" t="s">
         <v>44</v>
       </c>
       <c r="K40" s="1">
-        <v>39088</v>
+        <v>40391</v>
       </c>
       <c r="L40" t="s">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="M40">
-        <v>170</v>
+        <v>1070</v>
       </c>
       <c r="N40">
-        <v>170</v>
+        <v>1070</v>
       </c>
       <c r="O40">
-        <v>150</v>
+        <v>589</v>
       </c>
       <c r="P40">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="Q40">
-        <v>21926</v>
+        <v>125235</v>
       </c>
       <c r="R40">
-        <v>9722</v>
+        <v>75958</v>
       </c>
       <c r="S40" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>309</v>
+        <v>553</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -5190,55 +5200,55 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>310</v>
+        <v>554</v>
       </c>
       <c r="E41" t="s">
-        <v>311</v>
+        <v>555</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>556</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="H41" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>313</v>
+        <v>557</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41" s="1">
-        <v>40443</v>
+        <v>40384</v>
       </c>
       <c r="L41" t="s">
-        <v>314</v>
+        <v>558</v>
       </c>
       <c r="M41">
-        <v>3394</v>
+        <v>227</v>
       </c>
       <c r="N41">
-        <v>3381</v>
+        <v>204</v>
       </c>
       <c r="O41">
-        <v>1626</v>
+        <v>184</v>
       </c>
       <c r="P41">
-        <v>1644</v>
+        <v>207</v>
       </c>
       <c r="Q41">
-        <v>338819</v>
+        <v>30102</v>
       </c>
       <c r="R41">
-        <v>221490</v>
+        <v>13823</v>
       </c>
       <c r="S41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -5356,9 +5366,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
@@ -5367,52 +5377,52 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s">
         <v>25</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
       </c>
       <c r="K44" s="1">
-        <v>40228</v>
+        <v>40379</v>
       </c>
       <c r="L44" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="M44">
-        <v>62</v>
+        <v>1844</v>
       </c>
       <c r="N44">
-        <v>62</v>
+        <v>1844</v>
       </c>
       <c r="O44">
-        <v>60</v>
+        <v>1410</v>
       </c>
       <c r="P44">
-        <v>60</v>
+        <v>1462</v>
       </c>
       <c r="Q44">
-        <v>9910</v>
+        <v>306067</v>
       </c>
       <c r="R44">
-        <v>4807</v>
+        <v>170064</v>
       </c>
       <c r="S44" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -5474,63 +5484,63 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>343</v>
+        <v>429</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="E46" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="G46" t="s">
         <v>130</v>
       </c>
       <c r="H46" t="s">
-        <v>346</v>
+        <v>34</v>
       </c>
       <c r="I46" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="J46" t="s">
         <v>44</v>
       </c>
       <c r="K46" s="1">
-        <v>38153</v>
+        <v>40371</v>
       </c>
       <c r="L46" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="M46">
-        <v>340</v>
+        <v>1211</v>
       </c>
       <c r="N46">
-        <v>340</v>
+        <v>1211</v>
       </c>
       <c r="O46">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="P46">
-        <v>271</v>
+        <v>550</v>
       </c>
       <c r="Q46">
-        <v>54407</v>
+        <v>137525</v>
       </c>
       <c r="R46">
-        <v>27003</v>
+        <v>96325</v>
       </c>
       <c r="S46" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -5592,9 +5602,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>357</v>
+        <v>650</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -5603,57 +5613,57 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>358</v>
+        <v>651</v>
       </c>
       <c r="E48" t="s">
-        <v>359</v>
+        <v>652</v>
       </c>
       <c r="F48" t="s">
-        <v>360</v>
+        <v>653</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H48" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>361</v>
+        <v>654</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="K48" s="1">
-        <v>40379</v>
+        <v>40367</v>
       </c>
       <c r="L48" t="s">
-        <v>362</v>
+        <v>655</v>
       </c>
       <c r="M48">
-        <v>1844</v>
+        <v>658</v>
       </c>
       <c r="N48">
-        <v>1844</v>
+        <v>658</v>
       </c>
       <c r="O48">
-        <v>1410</v>
+        <v>575</v>
       </c>
       <c r="P48">
-        <v>1462</v>
+        <v>575</v>
       </c>
       <c r="Q48">
-        <v>306067</v>
+        <v>101188</v>
       </c>
       <c r="R48">
-        <v>170064</v>
+        <v>55567</v>
       </c>
       <c r="S48" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>364</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
@@ -5662,116 +5672,116 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
+        <v>56</v>
       </c>
       <c r="E49" t="s">
-        <v>366</v>
+        <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="G49" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
       </c>
       <c r="I49" t="s">
-        <v>367</v>
+        <v>60</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49" s="1">
-        <v>40106</v>
+        <v>40364</v>
       </c>
       <c r="L49" t="s">
-        <v>368</v>
+        <v>61</v>
       </c>
       <c r="M49">
-        <v>151</v>
+        <v>2665</v>
       </c>
       <c r="N49">
-        <v>100</v>
+        <v>2624</v>
       </c>
       <c r="O49">
-        <v>88</v>
+        <v>1973</v>
       </c>
       <c r="P49">
-        <v>134</v>
+        <v>2001</v>
       </c>
       <c r="Q49">
-        <v>21100</v>
+        <v>591451</v>
       </c>
       <c r="R49">
-        <v>13772</v>
+        <v>412394</v>
       </c>
       <c r="S49" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>481</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>371</v>
+        <v>482</v>
       </c>
       <c r="E50" t="s">
-        <v>372</v>
+        <v>483</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="H50" t="s">
-        <v>373</v>
+        <v>483</v>
       </c>
       <c r="I50" t="s">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="1">
-        <v>39956</v>
+        <v>40351</v>
       </c>
       <c r="L50" t="s">
-        <v>375</v>
+        <v>484</v>
       </c>
       <c r="M50">
-        <v>15247</v>
+        <v>17633</v>
       </c>
       <c r="N50">
-        <v>3612</v>
+        <v>10714</v>
       </c>
       <c r="O50">
-        <v>2602</v>
+        <v>6941</v>
       </c>
       <c r="P50">
-        <v>11456</v>
+        <v>11900</v>
       </c>
       <c r="Q50">
-        <v>486511</v>
+        <v>2066536</v>
       </c>
       <c r="R50">
-        <v>281643</v>
+        <v>922958</v>
       </c>
       <c r="S50" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>377</v>
+        <v>657</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -5780,57 +5790,57 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>378</v>
+        <v>658</v>
       </c>
       <c r="E51" t="s">
-        <v>379</v>
+        <v>659</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>660</v>
       </c>
       <c r="G51" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I51" t="s">
-        <v>380</v>
+        <v>661</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51" s="1">
-        <v>40222</v>
+        <v>40351</v>
       </c>
       <c r="L51" t="s">
-        <v>381</v>
+        <v>662</v>
       </c>
       <c r="M51">
-        <v>1068</v>
+        <v>287</v>
       </c>
       <c r="N51">
-        <v>1045</v>
+        <v>286</v>
       </c>
       <c r="O51">
-        <v>941</v>
+        <v>213</v>
       </c>
       <c r="P51">
-        <v>958</v>
+        <v>221</v>
       </c>
       <c r="Q51">
-        <v>166730</v>
+        <v>59463</v>
       </c>
       <c r="R51">
-        <v>90831</v>
+        <v>26819</v>
       </c>
       <c r="S51" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>383</v>
+        <v>785</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -5839,111 +5849,111 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>384</v>
+        <v>786</v>
       </c>
       <c r="E52" t="s">
-        <v>385</v>
+        <v>787</v>
       </c>
       <c r="F52" t="s">
-        <v>386</v>
+        <v>788</v>
       </c>
       <c r="G52" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H52" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I52" t="s">
-        <v>387</v>
+        <v>789</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52" s="1">
-        <v>40307</v>
+        <v>40347</v>
       </c>
       <c r="L52" t="s">
-        <v>388</v>
+        <v>790</v>
       </c>
       <c r="M52">
-        <v>1128</v>
+        <v>1112</v>
       </c>
       <c r="N52">
-        <v>1128</v>
+        <v>948</v>
       </c>
       <c r="O52">
-        <v>483</v>
+        <v>705</v>
       </c>
       <c r="P52">
-        <v>488</v>
+        <v>849</v>
       </c>
       <c r="Q52">
-        <v>158201</v>
+        <v>216254</v>
       </c>
       <c r="R52">
-        <v>107469</v>
+        <v>129164</v>
       </c>
       <c r="S52" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>390</v>
+        <v>710</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>391</v>
+        <v>711</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>712</v>
       </c>
       <c r="F53" t="s">
-        <v>393</v>
+        <v>713</v>
       </c>
       <c r="G53" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H53" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I53" t="s">
-        <v>394</v>
+        <v>714</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="1">
-        <v>40330</v>
+        <v>40344</v>
       </c>
       <c r="L53" t="s">
-        <v>395</v>
+        <v>715</v>
       </c>
       <c r="M53">
-        <v>3572</v>
+        <v>2211</v>
       </c>
       <c r="N53">
-        <v>1392</v>
+        <v>169</v>
       </c>
       <c r="O53">
-        <v>914</v>
+        <v>67</v>
       </c>
       <c r="P53">
-        <v>2268</v>
+        <v>1142</v>
       </c>
       <c r="Q53">
-        <v>164679</v>
+        <v>9082</v>
       </c>
       <c r="R53">
-        <v>70948</v>
+        <v>6944</v>
       </c>
       <c r="S53" t="s">
-        <v>396</v>
+        <v>716</v>
       </c>
     </row>
     <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6005,9 +6015,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -6016,52 +6026,52 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>403</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>404</v>
+        <v>290</v>
       </c>
       <c r="F55" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="G55" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I55" t="s">
-        <v>406</v>
+        <v>292</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="1">
-        <v>39923</v>
+        <v>40336</v>
       </c>
       <c r="L55" t="s">
-        <v>407</v>
+        <v>293</v>
       </c>
       <c r="M55">
-        <v>857</v>
+        <v>535</v>
       </c>
       <c r="N55">
-        <v>649</v>
+        <v>535</v>
       </c>
       <c r="O55">
-        <v>606</v>
+        <v>388</v>
       </c>
       <c r="P55">
-        <v>789</v>
+        <v>388</v>
       </c>
       <c r="Q55">
-        <v>224889</v>
+        <v>228172</v>
       </c>
       <c r="R55">
-        <v>98078</v>
+        <v>123268</v>
       </c>
       <c r="S55" t="s">
-        <v>408</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6182,9 +6192,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>422</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -6193,13 +6203,13 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>423</v>
+        <v>151</v>
       </c>
       <c r="E58" t="s">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="F58" t="s">
-        <v>425</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
         <v>130</v>
@@ -6208,42 +6218,42 @@
         <v>34</v>
       </c>
       <c r="I58" t="s">
-        <v>426</v>
+        <v>154</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="K58" s="1">
-        <v>39998</v>
+        <v>40330</v>
       </c>
       <c r="L58" t="s">
-        <v>427</v>
+        <v>155</v>
       </c>
       <c r="M58">
-        <v>255</v>
+        <v>2536</v>
       </c>
       <c r="N58">
-        <v>255</v>
+        <v>2534</v>
       </c>
       <c r="O58">
-        <v>175</v>
+        <v>2333</v>
       </c>
       <c r="P58">
-        <v>175</v>
+        <v>2347</v>
       </c>
       <c r="Q58">
-        <v>31296</v>
+        <v>676766</v>
       </c>
       <c r="R58">
-        <v>11931</v>
+        <v>400257</v>
       </c>
       <c r="S58" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>429</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -6252,170 +6262,170 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>430</v>
+        <v>391</v>
       </c>
       <c r="E59" t="s">
-        <v>431</v>
+        <v>392</v>
       </c>
       <c r="F59" t="s">
-        <v>432</v>
+        <v>393</v>
       </c>
       <c r="G59" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H59" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>433</v>
+        <v>394</v>
       </c>
       <c r="J59" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="1">
-        <v>40371</v>
+        <v>40330</v>
       </c>
       <c r="L59" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="M59">
-        <v>1211</v>
+        <v>3572</v>
       </c>
       <c r="N59">
-        <v>1211</v>
+        <v>1392</v>
       </c>
       <c r="O59">
-        <v>540</v>
+        <v>914</v>
       </c>
       <c r="P59">
-        <v>550</v>
+        <v>2268</v>
       </c>
       <c r="Q59">
-        <v>137525</v>
+        <v>164679</v>
       </c>
       <c r="R59">
-        <v>96325</v>
+        <v>70948</v>
       </c>
       <c r="S59" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>436</v>
+        <v>684</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D60" t="s">
-        <v>437</v>
+        <v>685</v>
       </c>
       <c r="E60" t="s">
-        <v>438</v>
+        <v>686</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>687</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="H60" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I60" t="s">
-        <v>439</v>
+        <v>688</v>
       </c>
       <c r="J60" t="s">
         <v>44</v>
       </c>
       <c r="K60" s="1">
-        <v>40391</v>
+        <v>40330</v>
       </c>
       <c r="L60" t="s">
-        <v>440</v>
+        <v>689</v>
       </c>
       <c r="M60">
-        <v>1070</v>
+        <v>1682</v>
       </c>
       <c r="N60">
-        <v>1070</v>
+        <v>1682</v>
       </c>
       <c r="O60">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="P60">
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="Q60">
-        <v>125235</v>
+        <v>133546</v>
       </c>
       <c r="R60">
-        <v>75958</v>
+        <v>73230</v>
       </c>
       <c r="S60" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>442</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>443</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>159</v>
       </c>
       <c r="F61" t="s">
-        <v>445</v>
+        <v>160</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="H61" t="s">
         <v>34</v>
       </c>
       <c r="I61" t="s">
-        <v>446</v>
+        <v>161</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K61" s="1">
-        <v>41302</v>
+        <v>40315</v>
       </c>
       <c r="L61" t="s">
-        <v>447</v>
+        <v>162</v>
       </c>
       <c r="M61">
-        <v>1148</v>
+        <v>2995</v>
       </c>
       <c r="N61">
-        <v>1143</v>
+        <v>2995</v>
       </c>
       <c r="O61">
-        <v>888</v>
+        <v>2467</v>
       </c>
       <c r="P61">
-        <v>894</v>
+        <v>2503</v>
       </c>
       <c r="Q61">
-        <v>159605</v>
+        <v>1062189</v>
       </c>
       <c r="R61">
-        <v>90612</v>
+        <v>592817</v>
       </c>
       <c r="S61" t="s">
-        <v>448</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6595,9 +6605,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>467</v>
+        <v>274</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -6606,52 +6616,52 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>468</v>
+        <v>275</v>
       </c>
       <c r="E65" t="s">
-        <v>469</v>
+        <v>276</v>
       </c>
       <c r="F65" t="s">
-        <v>470</v>
+        <v>277</v>
       </c>
       <c r="G65" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>471</v>
+        <v>278</v>
       </c>
       <c r="J65" t="s">
         <v>44</v>
       </c>
       <c r="K65" s="1">
-        <v>39221</v>
+        <v>40308</v>
       </c>
       <c r="L65" t="s">
-        <v>472</v>
+        <v>279</v>
       </c>
       <c r="M65">
-        <v>189</v>
+        <v>706</v>
       </c>
       <c r="N65">
-        <v>189</v>
+        <v>703</v>
       </c>
       <c r="O65">
-        <v>100</v>
+        <v>551</v>
       </c>
       <c r="P65">
-        <v>119</v>
+        <v>553</v>
       </c>
       <c r="Q65">
-        <v>21844</v>
+        <v>118415</v>
       </c>
       <c r="R65">
-        <v>13246</v>
+        <v>61681</v>
       </c>
       <c r="S65" t="s">
-        <v>473</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6713,9 +6723,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>481</v>
+        <v>750</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -6724,52 +6734,52 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>482</v>
+        <v>751</v>
       </c>
       <c r="E67" t="s">
-        <v>483</v>
+        <v>752</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>753</v>
       </c>
       <c r="G67" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H67" t="s">
-        <v>483</v>
+        <v>85</v>
       </c>
       <c r="I67" t="s">
-        <v>41</v>
+        <v>754</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="K67" s="1">
-        <v>40351</v>
+        <v>40308</v>
       </c>
       <c r="L67" t="s">
-        <v>484</v>
+        <v>755</v>
       </c>
       <c r="M67">
-        <v>17633</v>
+        <v>261</v>
       </c>
       <c r="N67">
-        <v>10714</v>
+        <v>261</v>
       </c>
       <c r="O67">
-        <v>6941</v>
+        <v>229</v>
       </c>
       <c r="P67">
-        <v>11900</v>
+        <v>229</v>
       </c>
       <c r="Q67">
-        <v>2066536</v>
+        <v>52231</v>
       </c>
       <c r="R67">
-        <v>922958</v>
+        <v>26854</v>
       </c>
       <c r="S67" t="s">
-        <v>485</v>
+        <v>756</v>
       </c>
     </row>
     <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6831,9 +6841,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>492</v>
+        <v>383</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -6842,52 +6852,52 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="E69" t="s">
-        <v>494</v>
+        <v>385</v>
       </c>
       <c r="F69" t="s">
-        <v>495</v>
+        <v>386</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="H69" t="s">
         <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>496</v>
+        <v>387</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69" s="1">
-        <v>40410</v>
+        <v>40307</v>
       </c>
       <c r="L69" t="s">
-        <v>497</v>
+        <v>388</v>
       </c>
       <c r="M69">
-        <v>5068</v>
+        <v>1128</v>
       </c>
       <c r="N69">
-        <v>4664</v>
+        <v>1128</v>
       </c>
       <c r="O69">
-        <v>966</v>
+        <v>483</v>
       </c>
       <c r="P69">
-        <v>1131</v>
+        <v>488</v>
       </c>
       <c r="Q69">
-        <v>231162</v>
+        <v>158201</v>
       </c>
       <c r="R69">
-        <v>160360</v>
+        <v>107469</v>
       </c>
       <c r="S69" t="s">
-        <v>498</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6949,7 +6959,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>505</v>
       </c>
@@ -7008,68 +7018,68 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>512</v>
+        <v>232</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D72" t="s">
-        <v>513</v>
+        <v>233</v>
       </c>
       <c r="E72" t="s">
-        <v>514</v>
+        <v>234</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="G72" t="s">
         <v>130</v>
       </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
-        <v>515</v>
+        <v>236</v>
       </c>
       <c r="J72" t="s">
-        <v>516</v>
+        <v>44</v>
       </c>
       <c r="K72" s="1">
-        <v>41445</v>
+        <v>40274</v>
       </c>
       <c r="L72" t="s">
-        <v>517</v>
+        <v>237</v>
       </c>
       <c r="M72">
-        <v>867</v>
+        <v>147</v>
       </c>
       <c r="N72">
-        <v>867</v>
+        <v>147</v>
       </c>
       <c r="O72">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="P72">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="Q72">
-        <v>73981</v>
+        <v>29943</v>
       </c>
       <c r="R72">
-        <v>48842</v>
+        <v>23012</v>
       </c>
       <c r="S72" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -7078,175 +7088,175 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="E73" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="F73" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G73" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H73" t="s">
         <v>85</v>
       </c>
       <c r="I73" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
       <c r="K73" s="1">
-        <v>40415</v>
+        <v>40267</v>
       </c>
       <c r="L73" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="M73">
-        <v>3686</v>
+        <v>308</v>
       </c>
       <c r="N73">
-        <v>2054</v>
+        <v>308</v>
       </c>
       <c r="O73">
-        <v>1808</v>
+        <v>207</v>
       </c>
       <c r="P73">
-        <v>2952</v>
+        <v>215</v>
       </c>
       <c r="Q73">
-        <v>644433</v>
+        <v>43018</v>
       </c>
       <c r="R73">
-        <v>397220</v>
+        <v>20637</v>
       </c>
       <c r="S73" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>526</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>527</v>
+        <v>119</v>
       </c>
       <c r="E74" t="s">
-        <v>528</v>
+        <v>120</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>121</v>
       </c>
       <c r="G74" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>529</v>
+        <v>123</v>
       </c>
       <c r="J74" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K74" s="1">
-        <v>40203</v>
+        <v>40240</v>
       </c>
       <c r="L74" t="s">
-        <v>530</v>
+        <v>124</v>
       </c>
       <c r="M74">
-        <v>858</v>
+        <v>122</v>
       </c>
       <c r="N74">
-        <v>858</v>
+        <v>122</v>
       </c>
       <c r="O74">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="P74">
-        <v>398</v>
+        <v>99</v>
       </c>
       <c r="Q74">
-        <v>67024</v>
+        <v>63030</v>
       </c>
       <c r="R74">
-        <v>37989</v>
+        <v>51860</v>
       </c>
       <c r="S74" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>532</v>
+        <v>623</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>533</v>
+        <v>624</v>
       </c>
       <c r="E75" t="s">
-        <v>534</v>
+        <v>625</v>
       </c>
       <c r="F75" t="s">
-        <v>535</v>
+        <v>626</v>
       </c>
       <c r="G75" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H75" t="s">
         <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>536</v>
+        <v>41</v>
       </c>
       <c r="J75" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K75" s="1">
-        <v>41229</v>
+        <v>40234</v>
       </c>
       <c r="L75" t="s">
-        <v>537</v>
+        <v>627</v>
       </c>
       <c r="M75">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="N75">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O75">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="P75">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q75">
-        <v>13359</v>
+        <v>15999</v>
       </c>
       <c r="R75">
-        <v>7428</v>
+        <v>9259</v>
       </c>
       <c r="S75" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>539</v>
+        <v>329</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -7255,116 +7265,116 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="E76" t="s">
-        <v>541</v>
+        <v>331</v>
       </c>
       <c r="F76" t="s">
-        <v>542</v>
+        <v>332</v>
       </c>
       <c r="G76" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="H76" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I76" t="s">
-        <v>543</v>
+        <v>333</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
       <c r="K76" s="1">
-        <v>40267</v>
+        <v>40228</v>
       </c>
       <c r="L76" t="s">
-        <v>544</v>
+        <v>334</v>
       </c>
       <c r="M76">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="N76">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="O76">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="P76">
-        <v>215</v>
+        <v>60</v>
       </c>
       <c r="Q76">
-        <v>43018</v>
+        <v>9910</v>
       </c>
       <c r="R76">
-        <v>20637</v>
+        <v>4807</v>
       </c>
       <c r="S76" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>546</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
       </c>
       <c r="C77">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D77" t="s">
-        <v>547</v>
+        <v>111</v>
       </c>
       <c r="E77" t="s">
-        <v>548</v>
+        <v>112</v>
       </c>
       <c r="F77" t="s">
-        <v>549</v>
+        <v>113</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H77" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I77" t="s">
-        <v>550</v>
+        <v>115</v>
       </c>
       <c r="J77" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K77" s="1">
-        <v>41391</v>
+        <v>40225</v>
       </c>
       <c r="L77" t="s">
-        <v>551</v>
+        <v>116</v>
       </c>
       <c r="M77">
-        <v>3729</v>
+        <v>352</v>
       </c>
       <c r="N77">
-        <v>3729</v>
+        <v>349</v>
       </c>
       <c r="O77">
-        <v>2103</v>
+        <v>267</v>
       </c>
       <c r="P77">
-        <v>2116</v>
+        <v>270</v>
       </c>
       <c r="Q77">
-        <v>449614</v>
+        <v>47226</v>
       </c>
       <c r="R77">
-        <v>285804</v>
+        <v>23316</v>
       </c>
       <c r="S77" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>553</v>
+        <v>377</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -7373,293 +7383,293 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>554</v>
+        <v>378</v>
       </c>
       <c r="E78" t="s">
-        <v>555</v>
+        <v>379</v>
       </c>
       <c r="F78" t="s">
-        <v>556</v>
+        <v>41</v>
       </c>
       <c r="G78" t="s">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>557</v>
+        <v>380</v>
       </c>
       <c r="J78" t="s">
         <v>44</v>
       </c>
       <c r="K78" s="1">
-        <v>40384</v>
+        <v>40222</v>
       </c>
       <c r="L78" t="s">
-        <v>558</v>
+        <v>381</v>
       </c>
       <c r="M78">
-        <v>227</v>
+        <v>1068</v>
       </c>
       <c r="N78">
-        <v>204</v>
+        <v>1045</v>
       </c>
       <c r="O78">
-        <v>184</v>
+        <v>941</v>
       </c>
       <c r="P78">
-        <v>207</v>
+        <v>958</v>
       </c>
       <c r="Q78">
-        <v>30102</v>
+        <v>166730</v>
       </c>
       <c r="R78">
-        <v>13823</v>
+        <v>90831</v>
       </c>
       <c r="S78" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="E79" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>597</v>
       </c>
       <c r="G79" t="s">
         <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="I79" t="s">
-        <v>563</v>
+        <v>598</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
       </c>
       <c r="K79" s="1">
-        <v>40455</v>
+        <v>40211</v>
       </c>
       <c r="L79" t="s">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="M79">
-        <v>846</v>
+        <v>56</v>
       </c>
       <c r="N79">
-        <v>697</v>
+        <v>55</v>
       </c>
       <c r="O79">
-        <v>602</v>
+        <v>28</v>
       </c>
       <c r="P79">
-        <v>744</v>
+        <v>29</v>
       </c>
       <c r="Q79">
-        <v>86278</v>
+        <v>11486</v>
       </c>
       <c r="R79">
-        <v>54336</v>
+        <v>6625</v>
       </c>
       <c r="S79" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D80" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="E80" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="F80" t="s">
-        <v>569</v>
+        <v>41</v>
       </c>
       <c r="G80" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="J80" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K80" s="1">
-        <v>40421</v>
+        <v>40203</v>
       </c>
       <c r="L80" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="M80">
-        <v>2185</v>
+        <v>858</v>
       </c>
       <c r="N80">
-        <v>2185</v>
+        <v>858</v>
       </c>
       <c r="O80">
-        <v>1656</v>
+        <v>398</v>
       </c>
       <c r="P80">
-        <v>1679</v>
+        <v>398</v>
       </c>
       <c r="Q80">
-        <v>362260</v>
+        <v>67024</v>
       </c>
       <c r="R80">
-        <v>258957</v>
+        <v>37989</v>
       </c>
       <c r="S80" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>573</v>
+        <v>38</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>574</v>
+        <v>39</v>
       </c>
       <c r="E81" t="s">
-        <v>575</v>
+        <v>40</v>
       </c>
       <c r="F81" t="s">
-        <v>576</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="H81" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I81" t="s">
-        <v>577</v>
+        <v>43</v>
       </c>
       <c r="J81" t="s">
         <v>44</v>
       </c>
       <c r="K81" s="1">
-        <v>40407</v>
+        <v>40181</v>
       </c>
       <c r="L81" t="s">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="M81">
-        <v>273</v>
+        <v>863</v>
       </c>
       <c r="N81">
-        <v>273</v>
+        <v>862</v>
       </c>
       <c r="O81">
-        <v>273</v>
+        <v>478</v>
       </c>
       <c r="P81">
-        <v>273</v>
+        <v>485</v>
       </c>
       <c r="Q81">
-        <v>76795</v>
+        <v>151006</v>
       </c>
       <c r="R81">
-        <v>51034</v>
+        <v>111725</v>
       </c>
       <c r="S81" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>580</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>581</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>582</v>
+        <v>98</v>
       </c>
       <c r="F82" t="s">
-        <v>583</v>
+        <v>41</v>
       </c>
       <c r="G82" t="s">
         <v>99</v>
       </c>
       <c r="H82" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I82" t="s">
-        <v>584</v>
+        <v>100</v>
       </c>
       <c r="J82" t="s">
         <v>44</v>
       </c>
       <c r="K82" s="1">
-        <v>40446</v>
+        <v>40181</v>
       </c>
       <c r="L82" t="s">
-        <v>585</v>
+        <v>101</v>
       </c>
       <c r="M82">
-        <v>1365</v>
+        <v>1663</v>
       </c>
       <c r="N82">
-        <v>1365</v>
+        <v>1327</v>
       </c>
       <c r="O82">
-        <v>1052</v>
+        <v>1173</v>
       </c>
       <c r="P82">
-        <v>1056</v>
+        <v>1309</v>
       </c>
       <c r="Q82">
-        <v>189954</v>
+        <v>240100</v>
       </c>
       <c r="R82">
-        <v>119529</v>
+        <v>115543</v>
       </c>
       <c r="S82" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -7668,57 +7678,57 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="E83" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="F83" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H83" t="s">
         <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
       <c r="J83" t="s">
         <v>44</v>
       </c>
       <c r="K83" s="1">
-        <v>40036</v>
+        <v>40162</v>
       </c>
       <c r="L83" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
       <c r="M83">
-        <v>3002</v>
+        <v>1786</v>
       </c>
       <c r="N83">
-        <v>3002</v>
+        <v>1785</v>
       </c>
       <c r="O83">
-        <v>2257</v>
+        <v>1405</v>
       </c>
       <c r="P83">
-        <v>2280</v>
+        <v>1406</v>
       </c>
       <c r="Q83">
-        <v>163640</v>
+        <v>269320</v>
       </c>
       <c r="R83">
-        <v>110378</v>
+        <v>143507</v>
       </c>
       <c r="S83" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>594</v>
+        <v>364</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -7727,111 +7737,111 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>595</v>
+        <v>365</v>
       </c>
       <c r="E84" t="s">
-        <v>596</v>
+        <v>366</v>
       </c>
       <c r="F84" t="s">
-        <v>597</v>
+        <v>41</v>
       </c>
       <c r="G84" t="s">
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>346</v>
+        <v>25</v>
       </c>
       <c r="I84" t="s">
-        <v>598</v>
+        <v>367</v>
       </c>
       <c r="J84" t="s">
         <v>44</v>
       </c>
       <c r="K84" s="1">
-        <v>40211</v>
+        <v>40106</v>
       </c>
       <c r="L84" t="s">
-        <v>599</v>
+        <v>368</v>
       </c>
       <c r="M84">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="N84">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="O84">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="P84">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="Q84">
-        <v>11486</v>
+        <v>21100</v>
       </c>
       <c r="R84">
-        <v>6625</v>
+        <v>13772</v>
       </c>
       <c r="S84" t="s">
-        <v>600</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>601</v>
+        <v>205</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>602</v>
+        <v>206</v>
       </c>
       <c r="E85" t="s">
-        <v>603</v>
+        <v>207</v>
       </c>
       <c r="F85" t="s">
-        <v>604</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H85" t="s">
         <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>605</v>
+        <v>209</v>
       </c>
       <c r="J85" t="s">
         <v>44</v>
       </c>
       <c r="K85" s="1">
-        <v>40413</v>
+        <v>40046</v>
       </c>
       <c r="L85" t="s">
-        <v>606</v>
+        <v>210</v>
       </c>
       <c r="M85">
-        <v>33420</v>
+        <v>1744</v>
       </c>
       <c r="N85">
-        <v>31023</v>
+        <v>1715</v>
       </c>
       <c r="O85">
-        <v>12869</v>
+        <v>1023</v>
       </c>
       <c r="P85">
-        <v>13453</v>
+        <v>1053</v>
       </c>
       <c r="Q85">
-        <v>3197006</v>
+        <v>181840</v>
       </c>
       <c r="R85">
-        <v>1890536</v>
+        <v>109096</v>
       </c>
       <c r="S85" t="s">
-        <v>607</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7952,9 +7962,9 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>623</v>
+        <v>743</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -7963,57 +7973,57 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>624</v>
+        <v>744</v>
       </c>
       <c r="E88" t="s">
-        <v>625</v>
+        <v>745</v>
       </c>
       <c r="F88" t="s">
-        <v>626</v>
+        <v>746</v>
       </c>
       <c r="G88" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="H88" t="s">
         <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>41</v>
+        <v>747</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88" s="1">
-        <v>40234</v>
+        <v>40039</v>
       </c>
       <c r="L88" t="s">
-        <v>627</v>
+        <v>748</v>
       </c>
       <c r="M88">
-        <v>255</v>
+        <v>629</v>
       </c>
       <c r="N88">
-        <v>242</v>
+        <v>34</v>
       </c>
       <c r="O88">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="P88">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="Q88">
-        <v>15999</v>
+        <v>4576</v>
       </c>
       <c r="R88">
-        <v>9259</v>
+        <v>2196</v>
       </c>
       <c r="S88" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -8022,57 +8032,57 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="E89" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="F89" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="G89" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H89" t="s">
         <v>25</v>
       </c>
       <c r="I89" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89" s="1">
-        <v>39852</v>
+        <v>40036</v>
       </c>
       <c r="L89" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="M89">
-        <v>926</v>
+        <v>3002</v>
       </c>
       <c r="N89">
-        <v>926</v>
+        <v>3002</v>
       </c>
       <c r="O89">
-        <v>751</v>
+        <v>2257</v>
       </c>
       <c r="P89">
-        <v>752</v>
+        <v>2280</v>
       </c>
       <c r="Q89">
-        <v>80971</v>
+        <v>163640</v>
       </c>
       <c r="R89">
-        <v>60875</v>
+        <v>110378</v>
       </c>
       <c r="S89" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>636</v>
+        <v>422</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -8081,229 +8091,229 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>637</v>
+        <v>423</v>
       </c>
       <c r="E90" t="s">
-        <v>638</v>
+        <v>424</v>
       </c>
       <c r="F90" t="s">
-        <v>639</v>
+        <v>425</v>
       </c>
       <c r="G90" t="s">
         <v>130</v>
       </c>
       <c r="H90" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I90" t="s">
-        <v>640</v>
+        <v>426</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90" s="1">
-        <v>40162</v>
+        <v>39998</v>
       </c>
       <c r="L90" t="s">
-        <v>641</v>
+        <v>427</v>
       </c>
       <c r="M90">
-        <v>1786</v>
+        <v>255</v>
       </c>
       <c r="N90">
-        <v>1785</v>
+        <v>255</v>
       </c>
       <c r="O90">
-        <v>1405</v>
+        <v>175</v>
       </c>
       <c r="P90">
-        <v>1406</v>
+        <v>175</v>
       </c>
       <c r="Q90">
-        <v>269320</v>
+        <v>31296</v>
       </c>
       <c r="R90">
-        <v>143507</v>
+        <v>11931</v>
       </c>
       <c r="S90" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>643</v>
+        <v>370</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>644</v>
+        <v>371</v>
       </c>
       <c r="E91" t="s">
-        <v>645</v>
+        <v>372</v>
       </c>
       <c r="F91" t="s">
-        <v>646</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H91" t="s">
-        <v>34</v>
+        <v>373</v>
       </c>
       <c r="I91" t="s">
-        <v>647</v>
+        <v>374</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91" s="1">
-        <v>39573</v>
+        <v>39956</v>
       </c>
       <c r="L91" t="s">
-        <v>648</v>
+        <v>375</v>
       </c>
       <c r="M91">
-        <v>869</v>
+        <v>15247</v>
       </c>
       <c r="N91">
-        <v>849</v>
+        <v>3612</v>
       </c>
       <c r="O91">
-        <v>298</v>
+        <v>2602</v>
       </c>
       <c r="P91">
-        <v>317</v>
+        <v>11456</v>
       </c>
       <c r="Q91">
-        <v>72167</v>
+        <v>486511</v>
       </c>
       <c r="R91">
-        <v>44474</v>
+        <v>281643</v>
       </c>
       <c r="S91" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
       <c r="C92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>651</v>
+        <v>731</v>
       </c>
       <c r="E92" t="s">
-        <v>652</v>
+        <v>732</v>
       </c>
       <c r="F92" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H92" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I92" t="s">
-        <v>654</v>
+        <v>347</v>
       </c>
       <c r="J92" t="s">
         <v>44</v>
       </c>
       <c r="K92" s="1">
-        <v>40367</v>
+        <v>39939</v>
       </c>
       <c r="L92" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="M92">
-        <v>658</v>
+        <v>1517</v>
       </c>
       <c r="N92">
-        <v>658</v>
+        <v>1502</v>
       </c>
       <c r="O92">
-        <v>575</v>
+        <v>1122</v>
       </c>
       <c r="P92">
-        <v>575</v>
+        <v>1124</v>
       </c>
       <c r="Q92">
-        <v>101188</v>
+        <v>107697</v>
       </c>
       <c r="R92">
-        <v>55567</v>
+        <v>53367</v>
       </c>
       <c r="S92" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>657</v>
+        <v>402</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>658</v>
+        <v>403</v>
       </c>
       <c r="E93" t="s">
-        <v>659</v>
+        <v>404</v>
       </c>
       <c r="F93" t="s">
-        <v>660</v>
+        <v>405</v>
       </c>
       <c r="G93" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H93" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I93" t="s">
-        <v>661</v>
+        <v>406</v>
       </c>
       <c r="J93" t="s">
         <v>44</v>
       </c>
       <c r="K93" s="1">
-        <v>40351</v>
+        <v>39923</v>
       </c>
       <c r="L93" t="s">
-        <v>662</v>
+        <v>407</v>
       </c>
       <c r="M93">
-        <v>287</v>
+        <v>857</v>
       </c>
       <c r="N93">
-        <v>286</v>
+        <v>649</v>
       </c>
       <c r="O93">
-        <v>213</v>
+        <v>606</v>
       </c>
       <c r="P93">
-        <v>221</v>
+        <v>789</v>
       </c>
       <c r="Q93">
-        <v>59463</v>
+        <v>224889</v>
       </c>
       <c r="R93">
-        <v>26819</v>
+        <v>98078</v>
       </c>
       <c r="S93" t="s">
-        <v>663</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -8424,9 +8434,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>677</v>
+        <v>253</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -8435,57 +8445,57 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>678</v>
+        <v>254</v>
       </c>
       <c r="E96" t="s">
-        <v>679</v>
+        <v>255</v>
       </c>
       <c r="F96" t="s">
-        <v>680</v>
+        <v>256</v>
       </c>
       <c r="G96" t="s">
         <v>130</v>
       </c>
       <c r="H96" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I96" t="s">
-        <v>681</v>
+        <v>257</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96" s="1">
-        <v>39826</v>
+        <v>39903</v>
       </c>
       <c r="L96" t="s">
-        <v>682</v>
+        <v>258</v>
       </c>
       <c r="M96">
-        <v>596</v>
+        <v>1058</v>
       </c>
       <c r="N96">
-        <v>587</v>
+        <v>1058</v>
       </c>
       <c r="O96">
-        <v>529</v>
+        <v>506</v>
       </c>
       <c r="P96">
-        <v>537</v>
+        <v>510</v>
       </c>
       <c r="Q96">
-        <v>92959</v>
+        <v>67286</v>
       </c>
       <c r="R96">
-        <v>50980</v>
+        <v>47051</v>
       </c>
       <c r="S96" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>684</v>
+        <v>629</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -8494,57 +8504,57 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>685</v>
+        <v>630</v>
       </c>
       <c r="E97" t="s">
-        <v>686</v>
+        <v>631</v>
       </c>
       <c r="F97" t="s">
-        <v>687</v>
+        <v>632</v>
       </c>
       <c r="G97" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H97" t="s">
         <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="J97" t="s">
         <v>44</v>
       </c>
       <c r="K97" s="1">
-        <v>40330</v>
+        <v>39852</v>
       </c>
       <c r="L97" t="s">
-        <v>689</v>
+        <v>634</v>
       </c>
       <c r="M97">
-        <v>1682</v>
+        <v>926</v>
       </c>
       <c r="N97">
-        <v>1682</v>
+        <v>926</v>
       </c>
       <c r="O97">
-        <v>620</v>
+        <v>751</v>
       </c>
       <c r="P97">
-        <v>620</v>
+        <v>752</v>
       </c>
       <c r="Q97">
-        <v>133546</v>
+        <v>80971</v>
       </c>
       <c r="R97">
-        <v>73230</v>
+        <v>60875</v>
       </c>
       <c r="S97" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -8553,52 +8563,52 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>365</v>
+        <v>678</v>
       </c>
       <c r="E98" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="F98" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="G98" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H98" t="s">
         <v>25</v>
       </c>
       <c r="I98" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98" s="1">
-        <v>38710</v>
+        <v>39826</v>
       </c>
       <c r="L98" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="M98">
-        <v>286</v>
+        <v>596</v>
       </c>
       <c r="N98">
-        <v>285</v>
+        <v>587</v>
       </c>
       <c r="O98">
-        <v>198</v>
+        <v>529</v>
       </c>
       <c r="P98">
-        <v>199</v>
+        <v>537</v>
       </c>
       <c r="Q98">
-        <v>35388</v>
+        <v>92959</v>
       </c>
       <c r="R98">
-        <v>28394</v>
+        <v>50980</v>
       </c>
       <c r="S98" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -8660,181 +8670,181 @@
         <v>702</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>703</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>704</v>
+        <v>165</v>
       </c>
       <c r="E100" t="s">
-        <v>705</v>
+        <v>166</v>
       </c>
       <c r="F100" t="s">
-        <v>706</v>
+        <v>167</v>
       </c>
       <c r="G100" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="H100" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I100" t="s">
-        <v>707</v>
+        <v>168</v>
       </c>
       <c r="J100" t="s">
         <v>44</v>
       </c>
       <c r="K100" s="1">
-        <v>40471</v>
+        <v>39809</v>
       </c>
       <c r="L100" t="s">
-        <v>708</v>
+        <v>169</v>
       </c>
       <c r="M100">
-        <v>3398</v>
+        <v>131</v>
       </c>
       <c r="N100">
-        <v>3089</v>
+        <v>131</v>
       </c>
       <c r="O100">
-        <v>2442</v>
+        <v>118</v>
       </c>
       <c r="P100">
-        <v>2745</v>
+        <v>118</v>
       </c>
       <c r="Q100">
-        <v>369268</v>
+        <v>23247</v>
       </c>
       <c r="R100">
-        <v>160302</v>
+        <v>11832</v>
       </c>
       <c r="S100" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>711</v>
+        <v>644</v>
       </c>
       <c r="E101" t="s">
-        <v>712</v>
+        <v>645</v>
       </c>
       <c r="F101" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
       <c r="G101" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H101" t="s">
         <v>34</v>
       </c>
       <c r="I101" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="J101" t="s">
         <v>44</v>
       </c>
       <c r="K101" s="1">
-        <v>40344</v>
+        <v>39573</v>
       </c>
       <c r="L101" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="M101">
-        <v>2211</v>
+        <v>869</v>
       </c>
       <c r="N101">
-        <v>169</v>
+        <v>849</v>
       </c>
       <c r="O101">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="P101">
-        <v>1142</v>
+        <v>317</v>
       </c>
       <c r="Q101">
-        <v>9082</v>
+        <v>72167</v>
       </c>
       <c r="R101">
-        <v>6944</v>
+        <v>44474</v>
       </c>
       <c r="S101" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>717</v>
+        <v>126</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>718</v>
+        <v>127</v>
       </c>
       <c r="E102" t="s">
-        <v>719</v>
+        <v>128</v>
       </c>
       <c r="F102" t="s">
-        <v>720</v>
+        <v>129</v>
       </c>
       <c r="G102" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H102" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I102" t="s">
-        <v>721</v>
+        <v>131</v>
       </c>
       <c r="J102" t="s">
         <v>44</v>
       </c>
       <c r="K102" s="1">
-        <v>40406</v>
+        <v>39553</v>
       </c>
       <c r="L102" t="s">
-        <v>722</v>
+        <v>132</v>
       </c>
       <c r="M102">
-        <v>1238</v>
+        <v>458</v>
       </c>
       <c r="N102">
-        <v>1074</v>
+        <v>458</v>
       </c>
       <c r="O102">
-        <v>844</v>
+        <v>273</v>
       </c>
       <c r="P102">
-        <v>1002</v>
+        <v>274</v>
       </c>
       <c r="Q102">
-        <v>136865</v>
+        <v>63852</v>
       </c>
       <c r="R102">
-        <v>74670</v>
+        <v>27635</v>
       </c>
       <c r="S102" t="s">
-        <v>723</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -8896,127 +8906,127 @@
         <v>729</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>730</v>
+        <v>467</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>731</v>
+        <v>468</v>
       </c>
       <c r="E104" t="s">
-        <v>732</v>
+        <v>469</v>
       </c>
       <c r="F104" t="s">
-        <v>733</v>
+        <v>470</v>
       </c>
       <c r="G104" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="H104" t="s">
         <v>25</v>
       </c>
       <c r="I104" t="s">
-        <v>347</v>
+        <v>471</v>
       </c>
       <c r="J104" t="s">
         <v>44</v>
       </c>
       <c r="K104" s="1">
-        <v>39939</v>
+        <v>39221</v>
       </c>
       <c r="L104" t="s">
-        <v>734</v>
+        <v>472</v>
       </c>
       <c r="M104">
-        <v>1517</v>
+        <v>189</v>
       </c>
       <c r="N104">
-        <v>1502</v>
+        <v>189</v>
       </c>
       <c r="O104">
-        <v>1122</v>
+        <v>100</v>
       </c>
       <c r="P104">
-        <v>1124</v>
+        <v>119</v>
       </c>
       <c r="Q104">
-        <v>107697</v>
+        <v>21844</v>
       </c>
       <c r="R104">
-        <v>53367</v>
+        <v>13246</v>
       </c>
       <c r="S104" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>736</v>
+        <v>302</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
       </c>
       <c r="C105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>737</v>
+        <v>303</v>
       </c>
       <c r="E105" t="s">
-        <v>738</v>
+        <v>304</v>
       </c>
       <c r="F105" t="s">
-        <v>739</v>
+        <v>305</v>
       </c>
       <c r="G105" t="s">
         <v>99</v>
       </c>
       <c r="H105" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I105" t="s">
-        <v>740</v>
+        <v>306</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105" s="1">
-        <v>40401</v>
+        <v>39088</v>
       </c>
       <c r="L105" t="s">
-        <v>741</v>
+        <v>307</v>
       </c>
       <c r="M105">
-        <v>1857</v>
+        <v>170</v>
       </c>
       <c r="N105">
-        <v>1739</v>
+        <v>170</v>
       </c>
       <c r="O105">
-        <v>1157</v>
+        <v>150</v>
       </c>
       <c r="P105">
-        <v>1274</v>
+        <v>150</v>
       </c>
       <c r="Q105">
-        <v>329550</v>
+        <v>21926</v>
       </c>
       <c r="R105">
-        <v>166478</v>
+        <v>9722</v>
       </c>
       <c r="S105" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>743</v>
+        <v>246</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -9025,57 +9035,57 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>744</v>
+        <v>247</v>
       </c>
       <c r="E106" t="s">
-        <v>745</v>
+        <v>248</v>
       </c>
       <c r="F106" t="s">
-        <v>746</v>
+        <v>249</v>
       </c>
       <c r="G106" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="H106" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I106" t="s">
-        <v>747</v>
+        <v>250</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106" s="1">
-        <v>40039</v>
+        <v>38822</v>
       </c>
       <c r="L106" t="s">
-        <v>748</v>
+        <v>251</v>
       </c>
       <c r="M106">
-        <v>629</v>
+        <v>809</v>
       </c>
       <c r="N106">
-        <v>34</v>
+        <v>790</v>
       </c>
       <c r="O106">
-        <v>21</v>
+        <v>252</v>
       </c>
       <c r="P106">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="Q106">
-        <v>4576</v>
+        <v>68826</v>
       </c>
       <c r="R106">
-        <v>2196</v>
+        <v>52653</v>
       </c>
       <c r="S106" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>750</v>
+        <v>691</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -9084,57 +9094,57 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>751</v>
+        <v>365</v>
       </c>
       <c r="E107" t="s">
-        <v>752</v>
+        <v>692</v>
       </c>
       <c r="F107" t="s">
-        <v>753</v>
+        <v>693</v>
       </c>
       <c r="G107" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H107" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I107" t="s">
-        <v>754</v>
+        <v>694</v>
       </c>
       <c r="J107" t="s">
         <v>44</v>
       </c>
       <c r="K107" s="1">
-        <v>40308</v>
+        <v>38710</v>
       </c>
       <c r="L107" t="s">
-        <v>755</v>
+        <v>695</v>
       </c>
       <c r="M107">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="N107">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="O107">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="P107">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="Q107">
-        <v>52231</v>
+        <v>35388</v>
       </c>
       <c r="R107">
-        <v>26854</v>
+        <v>28394</v>
       </c>
       <c r="S107" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>757</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -9143,170 +9153,170 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>758</v>
+        <v>90</v>
       </c>
       <c r="E108" t="s">
-        <v>759</v>
+        <v>91</v>
       </c>
       <c r="F108" t="s">
-        <v>760</v>
+        <v>92</v>
       </c>
       <c r="G108" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H108" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I108" t="s">
-        <v>761</v>
+        <v>93</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
       </c>
       <c r="K108" s="1">
-        <v>40777</v>
+        <v>38611</v>
       </c>
       <c r="L108" t="s">
-        <v>762</v>
+        <v>94</v>
       </c>
       <c r="M108">
-        <v>724</v>
+        <v>586</v>
       </c>
       <c r="N108">
-        <v>724</v>
+        <v>586</v>
       </c>
       <c r="O108">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="P108">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="Q108">
-        <v>92502</v>
+        <v>148067</v>
       </c>
       <c r="R108">
-        <v>49933</v>
+        <v>81306</v>
       </c>
       <c r="S108" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>764</v>
+        <v>190</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>765</v>
+        <v>191</v>
       </c>
       <c r="E109" t="s">
-        <v>766</v>
+        <v>192</v>
       </c>
       <c r="F109" t="s">
-        <v>767</v>
+        <v>193</v>
       </c>
       <c r="G109" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H109" t="s">
-        <v>346</v>
+        <v>85</v>
       </c>
       <c r="I109" t="s">
-        <v>768</v>
+        <v>194</v>
       </c>
       <c r="J109" t="s">
         <v>44</v>
       </c>
       <c r="K109" s="1">
-        <v>37536</v>
+        <v>38515</v>
       </c>
       <c r="L109" t="s">
-        <v>769</v>
+        <v>195</v>
       </c>
       <c r="M109">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="N109">
-        <v>104</v>
+        <v>330</v>
       </c>
       <c r="O109">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="P109">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="Q109">
-        <v>14709</v>
+        <v>39237</v>
       </c>
       <c r="R109">
-        <v>8212</v>
+        <v>25806</v>
       </c>
       <c r="S109" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>771</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
       </c>
       <c r="C110">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>772</v>
+        <v>344</v>
       </c>
       <c r="E110" t="s">
-        <v>773</v>
+        <v>345</v>
       </c>
       <c r="F110" t="s">
-        <v>774</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
         <v>130</v>
       </c>
       <c r="H110" t="s">
-        <v>34</v>
+        <v>346</v>
       </c>
       <c r="I110" t="s">
-        <v>775</v>
+        <v>347</v>
       </c>
       <c r="J110" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K110" s="1">
-        <v>41326</v>
+        <v>38153</v>
       </c>
       <c r="L110" t="s">
-        <v>776</v>
+        <v>348</v>
       </c>
       <c r="M110">
-        <v>2392</v>
+        <v>340</v>
       </c>
       <c r="N110">
-        <v>2390</v>
+        <v>340</v>
       </c>
       <c r="O110">
-        <v>1047</v>
+        <v>270</v>
       </c>
       <c r="P110">
-        <v>1050</v>
+        <v>271</v>
       </c>
       <c r="Q110">
-        <v>470359</v>
+        <v>54407</v>
       </c>
       <c r="R110">
-        <v>247805</v>
+        <v>27003</v>
       </c>
       <c r="S110" t="s">
-        <v>777</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -9368,63 +9378,63 @@
         <v>784</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
       </c>
       <c r="C112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="E112" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="F112" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
       <c r="G112" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="H112" t="s">
-        <v>69</v>
+        <v>346</v>
       </c>
       <c r="I112" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
       <c r="J112" t="s">
         <v>44</v>
       </c>
       <c r="K112" s="1">
-        <v>40347</v>
+        <v>37536</v>
       </c>
       <c r="L112" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="M112">
-        <v>1112</v>
+        <v>104</v>
       </c>
       <c r="N112">
-        <v>948</v>
+        <v>104</v>
       </c>
       <c r="O112">
-        <v>705</v>
+        <v>87</v>
       </c>
       <c r="P112">
-        <v>849</v>
+        <v>88</v>
       </c>
       <c r="Q112">
-        <v>216254</v>
+        <v>14709</v>
       </c>
       <c r="R112">
-        <v>129164</v>
+        <v>8212</v>
       </c>
       <c r="S112" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">

--- a/Project Summary.xlsx
+++ b/Project Summary.xlsx
@@ -2472,13 +2472,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:S113" totalsRowShown="0">
   <autoFilter ref="A1:S113">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="findbugs"/>
-        <filter val="gt2"/>
-        <filter val="netbeans"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="1">
       <filters>
         <filter val="Active"/>
@@ -2486,7 +2479,7 @@
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:S112">
-    <sortCondition descending="1" ref="K1:K113"/>
+    <sortCondition ref="A1:A113"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" name="system"/>
@@ -2802,8 +2795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L122" sqref="L122"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D120" sqref="D120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2811,21 +2804,21 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="48.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="164.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="35" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="34.42578125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="81.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="81.140625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="50.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2888,299 +2881,299 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>513</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>514</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>515</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>516</v>
+        <v>27</v>
       </c>
       <c r="K2" s="1">
-        <v>41445</v>
+        <v>41052</v>
       </c>
       <c r="L2" t="s">
-        <v>517</v>
+        <v>28</v>
       </c>
       <c r="M2">
-        <v>867</v>
+        <v>1290</v>
       </c>
       <c r="N2">
-        <v>867</v>
+        <v>1290</v>
       </c>
       <c r="O2">
-        <v>272</v>
+        <v>846</v>
       </c>
       <c r="P2">
-        <v>272</v>
+        <v>850</v>
       </c>
       <c r="Q2">
-        <v>73981</v>
+        <v>217198</v>
       </c>
       <c r="R2">
-        <v>48842</v>
+        <v>105007</v>
       </c>
       <c r="S2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="C3">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
         <v>34</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>35</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3" s="1">
-        <v>41430</v>
+        <v>41296</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>36</v>
       </c>
       <c r="M3">
-        <v>34890</v>
+        <v>608</v>
       </c>
       <c r="N3">
-        <v>33874</v>
+        <v>385</v>
       </c>
       <c r="O3">
-        <v>19012</v>
+        <v>325</v>
       </c>
       <c r="P3">
-        <v>19445</v>
+        <v>395</v>
       </c>
       <c r="Q3">
-        <v>4107804</v>
+        <v>42221</v>
       </c>
       <c r="R3">
-        <v>2442717</v>
+        <v>21919</v>
       </c>
       <c r="S3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>285</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K4" s="1">
-        <v>41417</v>
+        <v>40181</v>
       </c>
       <c r="L4" t="s">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>3885</v>
+        <v>863</v>
       </c>
       <c r="N4">
-        <v>3614</v>
+        <v>862</v>
       </c>
       <c r="O4">
-        <v>2587</v>
+        <v>478</v>
       </c>
       <c r="P4">
-        <v>2797</v>
+        <v>485</v>
       </c>
       <c r="Q4">
-        <v>381426</v>
+        <v>151006</v>
       </c>
       <c r="R4">
-        <v>217163</v>
+        <v>111725</v>
       </c>
       <c r="S4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>547</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>548</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>549</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>550</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="1">
-        <v>41391</v>
+        <v>40892</v>
       </c>
       <c r="L5" t="s">
-        <v>551</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>3729</v>
+        <v>2669</v>
       </c>
       <c r="N5">
-        <v>3729</v>
+        <v>2560</v>
       </c>
       <c r="O5">
-        <v>2103</v>
+        <v>1888</v>
       </c>
       <c r="P5">
-        <v>2116</v>
+        <v>1952</v>
       </c>
       <c r="Q5">
-        <v>449614</v>
+        <v>383483</v>
       </c>
       <c r="R5">
-        <v>285804</v>
+        <v>192410</v>
       </c>
       <c r="S5" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>771</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>772</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>773</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>774</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>775</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K6" s="1">
-        <v>41326</v>
+        <v>40364</v>
       </c>
       <c r="L6" t="s">
-        <v>776</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>2392</v>
+        <v>2665</v>
       </c>
       <c r="N6">
-        <v>2390</v>
+        <v>2624</v>
       </c>
       <c r="O6">
-        <v>1047</v>
+        <v>1973</v>
       </c>
       <c r="P6">
-        <v>1050</v>
+        <v>2001</v>
       </c>
       <c r="Q6">
-        <v>470359</v>
+        <v>591451</v>
       </c>
       <c r="R6">
-        <v>247805</v>
+        <v>412394</v>
       </c>
       <c r="S6" t="s">
-        <v>777</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3242,63 +3235,63 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>444</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>445</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="1">
-        <v>41302</v>
+        <v>41260</v>
       </c>
       <c r="L8" t="s">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="M8">
-        <v>1148</v>
+        <v>7680</v>
       </c>
       <c r="N8">
-        <v>1143</v>
+        <v>7680</v>
       </c>
       <c r="O8">
-        <v>888</v>
+        <v>2909</v>
       </c>
       <c r="P8">
-        <v>894</v>
+        <v>2909</v>
       </c>
       <c r="Q8">
-        <v>159605</v>
+        <v>773040</v>
       </c>
       <c r="R8">
-        <v>90612</v>
+        <v>484739</v>
       </c>
       <c r="S8" t="s">
-        <v>448</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3360,142 +3353,142 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K10" s="1">
-        <v>41296</v>
+        <v>38611</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="M10">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="N10">
-        <v>385</v>
+        <v>586</v>
       </c>
       <c r="O10">
-        <v>325</v>
+        <v>543</v>
       </c>
       <c r="P10">
-        <v>395</v>
+        <v>544</v>
       </c>
       <c r="Q10">
-        <v>42221</v>
+        <v>148067</v>
       </c>
       <c r="R10">
-        <v>21919</v>
+        <v>81306</v>
       </c>
       <c r="S10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>226</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
         <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K11" s="1">
-        <v>41281</v>
+        <v>40181</v>
       </c>
       <c r="L11" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>1310</v>
+        <v>1663</v>
       </c>
       <c r="N11">
-        <v>1310</v>
+        <v>1327</v>
       </c>
       <c r="O11">
-        <v>630</v>
+        <v>1173</v>
       </c>
       <c r="P11">
-        <v>631</v>
+        <v>1309</v>
       </c>
       <c r="Q11">
-        <v>184152</v>
+        <v>240100</v>
       </c>
       <c r="R11">
-        <v>100748</v>
+        <v>115543</v>
       </c>
       <c r="S11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="C12">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
         <v>68</v>
@@ -3504,160 +3497,160 @@
         <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K12" s="1">
-        <v>41260</v>
+        <v>40416</v>
       </c>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="M12">
-        <v>7680</v>
+        <v>2184</v>
       </c>
       <c r="N12">
-        <v>7680</v>
+        <v>2171</v>
       </c>
       <c r="O12">
-        <v>2909</v>
+        <v>1468</v>
       </c>
       <c r="P12">
-        <v>2909</v>
+        <v>1482</v>
       </c>
       <c r="Q12">
-        <v>773040</v>
+        <v>221029</v>
       </c>
       <c r="R12">
-        <v>484739</v>
+        <v>127529</v>
       </c>
       <c r="S12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>532</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>533</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>534</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>535</v>
+        <v>113</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>536</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K13" s="1">
-        <v>41229</v>
+        <v>40225</v>
       </c>
       <c r="L13" t="s">
-        <v>537</v>
+        <v>116</v>
       </c>
       <c r="M13">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="N13">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="O13">
-        <v>152</v>
+        <v>267</v>
       </c>
       <c r="P13">
-        <v>164</v>
+        <v>270</v>
       </c>
       <c r="Q13">
-        <v>13359</v>
+        <v>47226</v>
       </c>
       <c r="R13">
-        <v>7428</v>
+        <v>23316</v>
       </c>
       <c r="S13" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="J14" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K14" s="1">
-        <v>41052</v>
+        <v>40240</v>
       </c>
       <c r="L14" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>1290</v>
+        <v>122</v>
       </c>
       <c r="N14">
-        <v>1290</v>
+        <v>122</v>
       </c>
       <c r="O14">
-        <v>846</v>
+        <v>99</v>
       </c>
       <c r="P14">
-        <v>850</v>
+        <v>99</v>
       </c>
       <c r="Q14">
-        <v>217198</v>
+        <v>63030</v>
       </c>
       <c r="R14">
-        <v>105007</v>
+        <v>51860</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
@@ -3666,52 +3659,52 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="F15" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I15" t="s">
-        <v>271</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15" s="1">
-        <v>40904</v>
+        <v>39553</v>
       </c>
       <c r="L15" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="M15">
-        <v>2116</v>
+        <v>458</v>
       </c>
       <c r="N15">
-        <v>2069</v>
+        <v>458</v>
       </c>
       <c r="O15">
-        <v>1045</v>
+        <v>273</v>
       </c>
       <c r="P15">
-        <v>1078</v>
+        <v>274</v>
       </c>
       <c r="Q15">
-        <v>237803</v>
+        <v>63852</v>
       </c>
       <c r="R15">
-        <v>142790</v>
+        <v>27635</v>
       </c>
       <c r="S15" t="s">
-        <v>273</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -3832,142 +3825,142 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H18" t="s">
         <v>34</v>
       </c>
       <c r="I18" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
       <c r="J18" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K18" s="1">
-        <v>40892</v>
+        <v>40330</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="M18">
-        <v>2669</v>
+        <v>2536</v>
       </c>
       <c r="N18">
-        <v>2560</v>
+        <v>2534</v>
       </c>
       <c r="O18">
-        <v>1888</v>
+        <v>2333</v>
       </c>
       <c r="P18">
-        <v>1952</v>
+        <v>2347</v>
       </c>
       <c r="Q18">
-        <v>383483</v>
+        <v>676766</v>
       </c>
       <c r="R18">
-        <v>192410</v>
+        <v>400257</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>757</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>758</v>
+        <v>158</v>
       </c>
       <c r="E19" t="s">
-        <v>759</v>
+        <v>159</v>
       </c>
       <c r="F19" t="s">
-        <v>760</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H19" t="s">
         <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>761</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
         <v>44</v>
       </c>
       <c r="K19" s="1">
-        <v>40777</v>
+        <v>40315</v>
       </c>
       <c r="L19" t="s">
-        <v>762</v>
+        <v>162</v>
       </c>
       <c r="M19">
-        <v>724</v>
+        <v>2995</v>
       </c>
       <c r="N19">
-        <v>724</v>
+        <v>2995</v>
       </c>
       <c r="O19">
-        <v>569</v>
+        <v>2467</v>
       </c>
       <c r="P19">
-        <v>569</v>
+        <v>2503</v>
       </c>
       <c r="Q19">
-        <v>92502</v>
+        <v>1062189</v>
       </c>
       <c r="R19">
-        <v>49933</v>
+        <v>592817</v>
       </c>
       <c r="S19" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="E20" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
         <v>51</v>
@@ -3976,37 +3969,37 @@
         <v>85</v>
       </c>
       <c r="I20" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K20" s="1">
-        <v>40593</v>
+        <v>39809</v>
       </c>
       <c r="L20" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="M20">
-        <v>1114</v>
+        <v>131</v>
       </c>
       <c r="N20">
-        <v>912</v>
+        <v>131</v>
       </c>
       <c r="O20">
-        <v>415</v>
+        <v>118</v>
       </c>
       <c r="P20">
-        <v>618</v>
+        <v>118</v>
       </c>
       <c r="Q20">
-        <v>80286</v>
+        <v>23247</v>
       </c>
       <c r="R20">
-        <v>50198</v>
+        <v>11832</v>
       </c>
       <c r="S20" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -4068,127 +4061,127 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>703</v>
+        <v>177</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>704</v>
+        <v>178</v>
       </c>
       <c r="E22" t="s">
-        <v>705</v>
+        <v>179</v>
       </c>
       <c r="F22" t="s">
-        <v>706</v>
+        <v>180</v>
       </c>
       <c r="G22" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I22" t="s">
-        <v>707</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
         <v>44</v>
       </c>
       <c r="K22" s="1">
-        <v>40471</v>
+        <v>40434</v>
       </c>
       <c r="L22" t="s">
-        <v>708</v>
+        <v>182</v>
       </c>
       <c r="M22">
-        <v>3398</v>
+        <v>3877</v>
       </c>
       <c r="N22">
-        <v>3089</v>
+        <v>1866</v>
       </c>
       <c r="O22">
-        <v>2442</v>
+        <v>467</v>
       </c>
       <c r="P22">
-        <v>2745</v>
+        <v>1280</v>
       </c>
       <c r="Q22">
-        <v>369268</v>
+        <v>117066</v>
       </c>
       <c r="R22">
-        <v>160302</v>
+        <v>62380</v>
       </c>
       <c r="S22" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>560</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>561</v>
+        <v>185</v>
       </c>
       <c r="E23" t="s">
-        <v>562</v>
+        <v>186</v>
       </c>
       <c r="F23" t="s">
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>563</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K23" s="1">
-        <v>40455</v>
+        <v>41430</v>
       </c>
       <c r="L23" t="s">
-        <v>564</v>
+        <v>188</v>
       </c>
       <c r="M23">
-        <v>846</v>
+        <v>34890</v>
       </c>
       <c r="N23">
-        <v>697</v>
+        <v>33874</v>
       </c>
       <c r="O23">
-        <v>602</v>
+        <v>19012</v>
       </c>
       <c r="P23">
-        <v>744</v>
+        <v>19445</v>
       </c>
       <c r="Q23">
-        <v>86278</v>
+        <v>4107804</v>
       </c>
       <c r="R23">
-        <v>54336</v>
+        <v>2442717</v>
       </c>
       <c r="S23" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -4197,52 +4190,52 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>581</v>
+        <v>191</v>
       </c>
       <c r="E24" t="s">
-        <v>582</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
-        <v>583</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I24" t="s">
-        <v>584</v>
+        <v>194</v>
       </c>
       <c r="J24" t="s">
         <v>44</v>
       </c>
       <c r="K24" s="1">
-        <v>40446</v>
+        <v>38515</v>
       </c>
       <c r="L24" t="s">
-        <v>585</v>
+        <v>195</v>
       </c>
       <c r="M24">
-        <v>1365</v>
+        <v>330</v>
       </c>
       <c r="N24">
-        <v>1365</v>
+        <v>330</v>
       </c>
       <c r="O24">
-        <v>1052</v>
+        <v>194</v>
       </c>
       <c r="P24">
-        <v>1056</v>
+        <v>193</v>
       </c>
       <c r="Q24">
-        <v>189954</v>
+        <v>39237</v>
       </c>
       <c r="R24">
-        <v>119529</v>
+        <v>25806</v>
       </c>
       <c r="S24" t="s">
-        <v>586</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -4304,9 +4297,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>309</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -4315,52 +4308,52 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s">
-        <v>311</v>
+        <v>207</v>
       </c>
       <c r="F26" t="s">
-        <v>312</v>
+        <v>208</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
       <c r="K26" s="1">
-        <v>40443</v>
+        <v>40046</v>
       </c>
       <c r="L26" t="s">
-        <v>314</v>
+        <v>210</v>
       </c>
       <c r="M26">
-        <v>3394</v>
+        <v>1744</v>
       </c>
       <c r="N26">
-        <v>3381</v>
+        <v>1715</v>
       </c>
       <c r="O26">
-        <v>1626</v>
+        <v>1023</v>
       </c>
       <c r="P26">
-        <v>1644</v>
+        <v>1053</v>
       </c>
       <c r="Q26">
-        <v>338819</v>
+        <v>181840</v>
       </c>
       <c r="R26">
-        <v>221490</v>
+        <v>109096</v>
       </c>
       <c r="S26" t="s">
-        <v>315</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -4422,9 +4415,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>177</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -4433,116 +4426,116 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="E28" t="s">
-        <v>179</v>
+        <v>220</v>
       </c>
       <c r="F28" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="G28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H28" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="J28" t="s">
         <v>44</v>
       </c>
       <c r="K28" s="1">
-        <v>40434</v>
+        <v>40396</v>
       </c>
       <c r="L28" t="s">
-        <v>182</v>
+        <v>223</v>
       </c>
       <c r="M28">
-        <v>3877</v>
+        <v>1290</v>
       </c>
       <c r="N28">
-        <v>1866</v>
+        <v>892</v>
       </c>
       <c r="O28">
-        <v>467</v>
+        <v>639</v>
       </c>
       <c r="P28">
-        <v>1280</v>
+        <v>724</v>
       </c>
       <c r="Q28">
-        <v>117066</v>
+        <v>33379</v>
       </c>
       <c r="R28">
-        <v>62380</v>
+        <v>27539</v>
       </c>
       <c r="S28" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="J29" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K29" s="1">
-        <v>40423</v>
+        <v>41281</v>
       </c>
       <c r="L29" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="M29">
-        <v>5613</v>
+        <v>1310</v>
       </c>
       <c r="N29">
-        <v>5593</v>
+        <v>1310</v>
       </c>
       <c r="O29">
-        <v>4058</v>
+        <v>630</v>
       </c>
       <c r="P29">
-        <v>4091</v>
+        <v>631</v>
       </c>
       <c r="Q29">
-        <v>935549</v>
+        <v>184152</v>
       </c>
       <c r="R29">
-        <v>446863</v>
+        <v>100748</v>
       </c>
       <c r="S29" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>566</v>
+        <v>232</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -4551,116 +4544,116 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>567</v>
+        <v>233</v>
       </c>
       <c r="E30" t="s">
-        <v>568</v>
+        <v>234</v>
       </c>
       <c r="F30" t="s">
-        <v>569</v>
+        <v>235</v>
       </c>
       <c r="G30" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>570</v>
+        <v>236</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30" s="1">
-        <v>40421</v>
+        <v>40274</v>
       </c>
       <c r="L30" t="s">
-        <v>571</v>
+        <v>237</v>
       </c>
       <c r="M30">
-        <v>2185</v>
+        <v>147</v>
       </c>
       <c r="N30">
-        <v>2185</v>
+        <v>147</v>
       </c>
       <c r="O30">
-        <v>1656</v>
+        <v>139</v>
       </c>
       <c r="P30">
-        <v>1679</v>
+        <v>139</v>
       </c>
       <c r="Q30">
-        <v>362260</v>
+        <v>29943</v>
       </c>
       <c r="R30">
-        <v>258957</v>
+        <v>23012</v>
       </c>
       <c r="S30" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>240</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="G31" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="H31" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I31" t="s">
-        <v>107</v>
+        <v>243</v>
       </c>
       <c r="J31" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K31" s="1">
-        <v>40416</v>
+        <v>40593</v>
       </c>
       <c r="L31" t="s">
-        <v>108</v>
+        <v>244</v>
       </c>
       <c r="M31">
-        <v>2184</v>
+        <v>1114</v>
       </c>
       <c r="N31">
-        <v>2171</v>
+        <v>912</v>
       </c>
       <c r="O31">
-        <v>1468</v>
+        <v>415</v>
       </c>
       <c r="P31">
-        <v>1482</v>
+        <v>618</v>
       </c>
       <c r="Q31">
-        <v>221029</v>
+        <v>80286</v>
       </c>
       <c r="R31">
-        <v>127529</v>
+        <v>50198</v>
       </c>
       <c r="S31" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>519</v>
+        <v>246</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -4669,116 +4662,116 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>520</v>
+        <v>247</v>
       </c>
       <c r="E32" t="s">
-        <v>521</v>
+        <v>248</v>
       </c>
       <c r="F32" t="s">
-        <v>522</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H32" t="s">
         <v>85</v>
       </c>
       <c r="I32" t="s">
-        <v>523</v>
+        <v>250</v>
       </c>
       <c r="J32" t="s">
         <v>44</v>
       </c>
       <c r="K32" s="1">
-        <v>40415</v>
+        <v>38822</v>
       </c>
       <c r="L32" t="s">
-        <v>524</v>
+        <v>251</v>
       </c>
       <c r="M32">
-        <v>3686</v>
+        <v>809</v>
       </c>
       <c r="N32">
-        <v>2054</v>
+        <v>790</v>
       </c>
       <c r="O32">
-        <v>1808</v>
+        <v>252</v>
       </c>
       <c r="P32">
-        <v>2952</v>
+        <v>259</v>
       </c>
       <c r="Q32">
-        <v>644433</v>
+        <v>68826</v>
       </c>
       <c r="R32">
-        <v>397220</v>
+        <v>52653</v>
       </c>
       <c r="S32" t="s">
-        <v>525</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>601</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>602</v>
+        <v>254</v>
       </c>
       <c r="E33" t="s">
-        <v>603</v>
+        <v>255</v>
       </c>
       <c r="F33" t="s">
-        <v>604</v>
+        <v>256</v>
       </c>
       <c r="G33" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H33" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I33" t="s">
-        <v>605</v>
+        <v>257</v>
       </c>
       <c r="J33" t="s">
         <v>44</v>
       </c>
       <c r="K33" s="1">
-        <v>40413</v>
+        <v>39903</v>
       </c>
       <c r="L33" t="s">
-        <v>606</v>
+        <v>258</v>
       </c>
       <c r="M33">
-        <v>33420</v>
+        <v>1058</v>
       </c>
       <c r="N33">
-        <v>31023</v>
+        <v>1058</v>
       </c>
       <c r="O33">
-        <v>12869</v>
+        <v>506</v>
       </c>
       <c r="P33">
-        <v>13453</v>
+        <v>510</v>
       </c>
       <c r="Q33">
-        <v>3197006</v>
+        <v>67286</v>
       </c>
       <c r="R33">
-        <v>1890536</v>
+        <v>47051</v>
       </c>
       <c r="S33" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>492</v>
+        <v>260</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -4787,116 +4780,116 @@
         <v>2</v>
       </c>
       <c r="D34" t="s">
-        <v>493</v>
+        <v>261</v>
       </c>
       <c r="E34" t="s">
-        <v>494</v>
+        <v>262</v>
       </c>
       <c r="F34" t="s">
-        <v>495</v>
+        <v>263</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="H34" t="s">
         <v>25</v>
       </c>
       <c r="I34" t="s">
-        <v>496</v>
+        <v>264</v>
       </c>
       <c r="J34" t="s">
         <v>44</v>
       </c>
       <c r="K34" s="1">
-        <v>40410</v>
+        <v>40423</v>
       </c>
       <c r="L34" t="s">
-        <v>497</v>
+        <v>265</v>
       </c>
       <c r="M34">
-        <v>5068</v>
+        <v>5613</v>
       </c>
       <c r="N34">
-        <v>4664</v>
+        <v>5593</v>
       </c>
       <c r="O34">
-        <v>966</v>
+        <v>4058</v>
       </c>
       <c r="P34">
-        <v>1131</v>
+        <v>4091</v>
       </c>
       <c r="Q34">
-        <v>231162</v>
+        <v>935549</v>
       </c>
       <c r="R34">
-        <v>160360</v>
+        <v>446863</v>
       </c>
       <c r="S34" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>573</v>
+        <v>267</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>574</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>575</v>
+        <v>269</v>
       </c>
       <c r="F35" t="s">
-        <v>576</v>
+        <v>270</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I35" t="s">
-        <v>577</v>
+        <v>271</v>
       </c>
       <c r="J35" t="s">
         <v>44</v>
       </c>
       <c r="K35" s="1">
-        <v>40407</v>
+        <v>40904</v>
       </c>
       <c r="L35" t="s">
-        <v>578</v>
+        <v>272</v>
       </c>
       <c r="M35">
+        <v>2116</v>
+      </c>
+      <c r="N35">
+        <v>2069</v>
+      </c>
+      <c r="O35">
+        <v>1045</v>
+      </c>
+      <c r="P35">
+        <v>1078</v>
+      </c>
+      <c r="Q35">
+        <v>237803</v>
+      </c>
+      <c r="R35">
+        <v>142790</v>
+      </c>
+      <c r="S35" t="s">
         <v>273</v>
       </c>
-      <c r="N35">
-        <v>273</v>
-      </c>
-      <c r="O35">
-        <v>273</v>
-      </c>
-      <c r="P35">
-        <v>273</v>
-      </c>
-      <c r="Q35">
-        <v>76795</v>
-      </c>
-      <c r="R35">
-        <v>51034</v>
-      </c>
-      <c r="S35" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>717</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -4905,173 +4898,173 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>718</v>
+        <v>275</v>
       </c>
       <c r="E36" t="s">
-        <v>719</v>
+        <v>276</v>
       </c>
       <c r="F36" t="s">
-        <v>720</v>
+        <v>277</v>
       </c>
       <c r="G36" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
         <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>721</v>
+        <v>278</v>
       </c>
       <c r="J36" t="s">
         <v>44</v>
       </c>
       <c r="K36" s="1">
-        <v>40406</v>
+        <v>40308</v>
       </c>
       <c r="L36" t="s">
-        <v>722</v>
+        <v>279</v>
       </c>
       <c r="M36">
-        <v>1238</v>
+        <v>706</v>
       </c>
       <c r="N36">
-        <v>1074</v>
+        <v>703</v>
       </c>
       <c r="O36">
-        <v>844</v>
+        <v>551</v>
       </c>
       <c r="P36">
-        <v>1002</v>
+        <v>553</v>
       </c>
       <c r="Q36">
-        <v>136865</v>
+        <v>118415</v>
       </c>
       <c r="R36">
-        <v>74670</v>
+        <v>61681</v>
       </c>
       <c r="S36" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>736</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="D37" t="s">
-        <v>737</v>
+        <v>282</v>
       </c>
       <c r="E37" t="s">
-        <v>738</v>
+        <v>283</v>
       </c>
       <c r="F37" t="s">
-        <v>739</v>
+        <v>284</v>
       </c>
       <c r="G37" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>34</v>
       </c>
       <c r="I37" t="s">
-        <v>740</v>
+        <v>285</v>
       </c>
       <c r="J37" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K37" s="1">
-        <v>40401</v>
+        <v>41417</v>
       </c>
       <c r="L37" t="s">
-        <v>741</v>
+        <v>286</v>
       </c>
       <c r="M37">
-        <v>1857</v>
+        <v>3885</v>
       </c>
       <c r="N37">
-        <v>1739</v>
+        <v>3614</v>
       </c>
       <c r="O37">
-        <v>1157</v>
+        <v>2587</v>
       </c>
       <c r="P37">
-        <v>1274</v>
+        <v>2797</v>
       </c>
       <c r="Q37">
-        <v>329550</v>
+        <v>381426</v>
       </c>
       <c r="R37">
-        <v>166478</v>
+        <v>217163</v>
       </c>
       <c r="S37" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>288</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
-        <v>220</v>
+        <v>290</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>291</v>
       </c>
       <c r="G38" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>34</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="J38" t="s">
         <v>44</v>
       </c>
       <c r="K38" s="1">
-        <v>40396</v>
+        <v>40336</v>
       </c>
       <c r="L38" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="M38">
-        <v>1290</v>
+        <v>535</v>
       </c>
       <c r="N38">
-        <v>892</v>
+        <v>535</v>
       </c>
       <c r="O38">
-        <v>639</v>
+        <v>388</v>
       </c>
       <c r="P38">
-        <v>724</v>
+        <v>388</v>
       </c>
       <c r="Q38">
-        <v>33379</v>
+        <v>228172</v>
       </c>
       <c r="R38">
-        <v>27539</v>
+        <v>123268</v>
       </c>
       <c r="S38" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>295</v>
       </c>
@@ -5130,68 +5123,68 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>436</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>437</v>
+        <v>303</v>
       </c>
       <c r="E40" t="s">
-        <v>438</v>
+        <v>304</v>
       </c>
       <c r="F40" t="s">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="J40" t="s">
         <v>44</v>
       </c>
       <c r="K40" s="1">
-        <v>40391</v>
+        <v>39088</v>
       </c>
       <c r="L40" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="M40">
-        <v>1070</v>
+        <v>170</v>
       </c>
       <c r="N40">
-        <v>1070</v>
+        <v>170</v>
       </c>
       <c r="O40">
-        <v>589</v>
+        <v>150</v>
       </c>
       <c r="P40">
-        <v>590</v>
+        <v>150</v>
       </c>
       <c r="Q40">
-        <v>125235</v>
+        <v>21926</v>
       </c>
       <c r="R40">
-        <v>75958</v>
+        <v>9722</v>
       </c>
       <c r="S40" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>553</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -5200,55 +5193,55 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>554</v>
+        <v>310</v>
       </c>
       <c r="E41" t="s">
-        <v>555</v>
+        <v>311</v>
       </c>
       <c r="F41" t="s">
-        <v>556</v>
+        <v>312</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I41" t="s">
-        <v>557</v>
+        <v>313</v>
       </c>
       <c r="J41" t="s">
         <v>44</v>
       </c>
       <c r="K41" s="1">
-        <v>40384</v>
+        <v>40443</v>
       </c>
       <c r="L41" t="s">
-        <v>558</v>
+        <v>314</v>
       </c>
       <c r="M41">
-        <v>227</v>
+        <v>3394</v>
       </c>
       <c r="N41">
-        <v>204</v>
+        <v>3381</v>
       </c>
       <c r="O41">
-        <v>184</v>
+        <v>1626</v>
       </c>
       <c r="P41">
-        <v>207</v>
+        <v>1644</v>
       </c>
       <c r="Q41">
-        <v>30102</v>
+        <v>338819</v>
       </c>
       <c r="R41">
-        <v>13823</v>
+        <v>221490</v>
       </c>
       <c r="S41" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>316</v>
       </c>
@@ -5366,63 +5359,63 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s">
         <v>20</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E44" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H44" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
         <v>44</v>
       </c>
       <c r="K44" s="1">
-        <v>40379</v>
+        <v>38153</v>
       </c>
       <c r="L44" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M44">
-        <v>1844</v>
+        <v>340</v>
       </c>
       <c r="N44">
-        <v>1844</v>
+        <v>340</v>
       </c>
       <c r="O44">
-        <v>1410</v>
+        <v>270</v>
       </c>
       <c r="P44">
-        <v>1462</v>
+        <v>271</v>
       </c>
       <c r="Q44">
-        <v>306067</v>
+        <v>54407</v>
       </c>
       <c r="R44">
-        <v>170064</v>
+        <v>27003</v>
       </c>
       <c r="S44" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -5484,9 +5477,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>429</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -5495,52 +5488,52 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="E46" t="s">
-        <v>431</v>
+        <v>359</v>
       </c>
       <c r="F46" t="s">
-        <v>432</v>
+        <v>360</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>433</v>
+        <v>361</v>
       </c>
       <c r="J46" t="s">
         <v>44</v>
       </c>
       <c r="K46" s="1">
-        <v>40371</v>
+        <v>40379</v>
       </c>
       <c r="L46" t="s">
-        <v>434</v>
+        <v>362</v>
       </c>
       <c r="M46">
-        <v>1211</v>
+        <v>1844</v>
       </c>
       <c r="N46">
-        <v>1211</v>
+        <v>1844</v>
       </c>
       <c r="O46">
-        <v>540</v>
+        <v>1410</v>
       </c>
       <c r="P46">
-        <v>550</v>
+        <v>1462</v>
       </c>
       <c r="Q46">
-        <v>137525</v>
+        <v>306067</v>
       </c>
       <c r="R46">
-        <v>96325</v>
+        <v>170064</v>
       </c>
       <c r="S46" t="s">
-        <v>435</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -5602,9 +5595,9 @@
         <v>356</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>650</v>
+        <v>364</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -5613,116 +5606,116 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>651</v>
+        <v>365</v>
       </c>
       <c r="E48" t="s">
-        <v>652</v>
+        <v>366</v>
       </c>
       <c r="F48" t="s">
-        <v>653</v>
+        <v>41</v>
       </c>
       <c r="G48" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I48" t="s">
-        <v>654</v>
+        <v>367</v>
       </c>
       <c r="J48" t="s">
         <v>44</v>
       </c>
       <c r="K48" s="1">
-        <v>40367</v>
+        <v>40106</v>
       </c>
       <c r="L48" t="s">
-        <v>655</v>
+        <v>368</v>
       </c>
       <c r="M48">
-        <v>658</v>
+        <v>151</v>
       </c>
       <c r="N48">
-        <v>658</v>
+        <v>100</v>
       </c>
       <c r="O48">
-        <v>575</v>
+        <v>88</v>
       </c>
       <c r="P48">
-        <v>575</v>
+        <v>134</v>
       </c>
       <c r="Q48">
-        <v>101188</v>
+        <v>21100</v>
       </c>
       <c r="R48">
-        <v>55567</v>
+        <v>13772</v>
       </c>
       <c r="S48" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>370</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>56</v>
+        <v>371</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>372</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="I49" t="s">
-        <v>60</v>
+        <v>374</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49" s="1">
-        <v>40364</v>
+        <v>39956</v>
       </c>
       <c r="L49" t="s">
-        <v>61</v>
+        <v>375</v>
       </c>
       <c r="M49">
-        <v>2665</v>
+        <v>15247</v>
       </c>
       <c r="N49">
-        <v>2624</v>
+        <v>3612</v>
       </c>
       <c r="O49">
-        <v>1973</v>
+        <v>2602</v>
       </c>
       <c r="P49">
-        <v>2001</v>
+        <v>11456</v>
       </c>
       <c r="Q49">
-        <v>591451</v>
+        <v>486511</v>
       </c>
       <c r="R49">
-        <v>412394</v>
+        <v>281643</v>
       </c>
       <c r="S49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>481</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
@@ -5731,57 +5724,57 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="E50" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="H50" t="s">
-        <v>483</v>
+        <v>25</v>
       </c>
       <c r="I50" t="s">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50" s="1">
-        <v>40351</v>
+        <v>40222</v>
       </c>
       <c r="L50" t="s">
-        <v>484</v>
+        <v>381</v>
       </c>
       <c r="M50">
-        <v>17633</v>
+        <v>1068</v>
       </c>
       <c r="N50">
-        <v>10714</v>
+        <v>1045</v>
       </c>
       <c r="O50">
-        <v>6941</v>
+        <v>941</v>
       </c>
       <c r="P50">
-        <v>11900</v>
+        <v>958</v>
       </c>
       <c r="Q50">
-        <v>2066536</v>
+        <v>166730</v>
       </c>
       <c r="R50">
-        <v>922958</v>
+        <v>90831</v>
       </c>
       <c r="S50" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>657</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
@@ -5790,57 +5783,57 @@
         <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>658</v>
+        <v>384</v>
       </c>
       <c r="E51" t="s">
-        <v>659</v>
+        <v>385</v>
       </c>
       <c r="F51" t="s">
-        <v>660</v>
+        <v>386</v>
       </c>
       <c r="G51" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
-        <v>661</v>
+        <v>387</v>
       </c>
       <c r="J51" t="s">
         <v>44</v>
       </c>
       <c r="K51" s="1">
-        <v>40351</v>
+        <v>40307</v>
       </c>
       <c r="L51" t="s">
-        <v>662</v>
+        <v>388</v>
       </c>
       <c r="M51">
-        <v>287</v>
+        <v>1128</v>
       </c>
       <c r="N51">
-        <v>286</v>
+        <v>1128</v>
       </c>
       <c r="O51">
-        <v>213</v>
+        <v>483</v>
       </c>
       <c r="P51">
-        <v>221</v>
+        <v>488</v>
       </c>
       <c r="Q51">
-        <v>59463</v>
+        <v>158201</v>
       </c>
       <c r="R51">
-        <v>26819</v>
+        <v>107469</v>
       </c>
       <c r="S51" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>785</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s">
         <v>20</v>
@@ -5849,111 +5842,111 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>786</v>
+        <v>391</v>
       </c>
       <c r="E52" t="s">
-        <v>787</v>
+        <v>392</v>
       </c>
       <c r="F52" t="s">
-        <v>788</v>
+        <v>393</v>
       </c>
       <c r="G52" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I52" t="s">
-        <v>789</v>
+        <v>394</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52" s="1">
-        <v>40347</v>
+        <v>40330</v>
       </c>
       <c r="L52" t="s">
-        <v>790</v>
+        <v>395</v>
       </c>
       <c r="M52">
-        <v>1112</v>
+        <v>3572</v>
       </c>
       <c r="N52">
-        <v>948</v>
+        <v>1392</v>
       </c>
       <c r="O52">
-        <v>705</v>
+        <v>914</v>
       </c>
       <c r="P52">
-        <v>849</v>
+        <v>2268</v>
       </c>
       <c r="Q52">
-        <v>216254</v>
+        <v>164679</v>
       </c>
       <c r="R52">
-        <v>129164</v>
+        <v>70948</v>
       </c>
       <c r="S52" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>710</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>711</v>
+        <v>330</v>
       </c>
       <c r="E53" t="s">
-        <v>712</v>
+        <v>331</v>
       </c>
       <c r="F53" t="s">
-        <v>713</v>
+        <v>332</v>
       </c>
       <c r="G53" t="s">
-        <v>68</v>
+        <v>138</v>
       </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I53" t="s">
-        <v>714</v>
+        <v>333</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
       <c r="K53" s="1">
-        <v>40344</v>
+        <v>40228</v>
       </c>
       <c r="L53" t="s">
-        <v>715</v>
+        <v>334</v>
       </c>
       <c r="M53">
-        <v>2211</v>
+        <v>62</v>
       </c>
       <c r="N53">
-        <v>169</v>
+        <v>62</v>
       </c>
       <c r="O53">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P53">
-        <v>1142</v>
+        <v>60</v>
       </c>
       <c r="Q53">
-        <v>9082</v>
+        <v>9910</v>
       </c>
       <c r="R53">
-        <v>6944</v>
+        <v>4807</v>
       </c>
       <c r="S53" t="s">
-        <v>716</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6015,9 +6008,9 @@
         <v>401</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>402</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
@@ -6026,52 +6019,52 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>289</v>
+        <v>403</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>404</v>
       </c>
       <c r="F55" t="s">
-        <v>291</v>
+        <v>405</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="I55" t="s">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="J55" t="s">
         <v>44</v>
       </c>
       <c r="K55" s="1">
-        <v>40336</v>
+        <v>39923</v>
       </c>
       <c r="L55" t="s">
-        <v>293</v>
+        <v>407</v>
       </c>
       <c r="M55">
-        <v>535</v>
+        <v>857</v>
       </c>
       <c r="N55">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="O55">
-        <v>388</v>
+        <v>606</v>
       </c>
       <c r="P55">
-        <v>388</v>
+        <v>789</v>
       </c>
       <c r="Q55">
-        <v>228172</v>
+        <v>224889</v>
       </c>
       <c r="R55">
-        <v>123268</v>
+        <v>98078</v>
       </c>
       <c r="S55" t="s">
-        <v>294</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6192,9 +6185,9 @@
         <v>421</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>422</v>
       </c>
       <c r="B58" t="s">
         <v>20</v>
@@ -6203,13 +6196,13 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>423</v>
       </c>
       <c r="E58" t="s">
-        <v>152</v>
+        <v>424</v>
       </c>
       <c r="F58" t="s">
-        <v>153</v>
+        <v>425</v>
       </c>
       <c r="G58" t="s">
         <v>130</v>
@@ -6218,42 +6211,42 @@
         <v>34</v>
       </c>
       <c r="I58" t="s">
-        <v>154</v>
+        <v>426</v>
       </c>
       <c r="J58" t="s">
         <v>44</v>
       </c>
       <c r="K58" s="1">
-        <v>40330</v>
+        <v>39998</v>
       </c>
       <c r="L58" t="s">
-        <v>155</v>
+        <v>427</v>
       </c>
       <c r="M58">
-        <v>2536</v>
+        <v>255</v>
       </c>
       <c r="N58">
-        <v>2534</v>
+        <v>255</v>
       </c>
       <c r="O58">
-        <v>2333</v>
+        <v>175</v>
       </c>
       <c r="P58">
-        <v>2347</v>
+        <v>175</v>
       </c>
       <c r="Q58">
-        <v>676766</v>
+        <v>31296</v>
       </c>
       <c r="R58">
-        <v>400257</v>
+        <v>11931</v>
       </c>
       <c r="S58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -6262,170 +6255,170 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="E59" t="s">
-        <v>392</v>
+        <v>431</v>
       </c>
       <c r="F59" t="s">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="G59" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H59" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I59" t="s">
-        <v>394</v>
+        <v>433</v>
       </c>
       <c r="J59" t="s">
         <v>44</v>
       </c>
       <c r="K59" s="1">
-        <v>40330</v>
+        <v>40371</v>
       </c>
       <c r="L59" t="s">
-        <v>395</v>
+        <v>434</v>
       </c>
       <c r="M59">
-        <v>3572</v>
+        <v>1211</v>
       </c>
       <c r="N59">
-        <v>1392</v>
+        <v>1211</v>
       </c>
       <c r="O59">
-        <v>914</v>
+        <v>540</v>
       </c>
       <c r="P59">
-        <v>2268</v>
+        <v>550</v>
       </c>
       <c r="Q59">
-        <v>164679</v>
+        <v>137525</v>
       </c>
       <c r="R59">
-        <v>70948</v>
+        <v>96325</v>
       </c>
       <c r="S59" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>684</v>
+        <v>436</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>685</v>
+        <v>437</v>
       </c>
       <c r="E60" t="s">
-        <v>686</v>
+        <v>438</v>
       </c>
       <c r="F60" t="s">
-        <v>687</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="H60" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I60" t="s">
-        <v>688</v>
+        <v>439</v>
       </c>
       <c r="J60" t="s">
         <v>44</v>
       </c>
       <c r="K60" s="1">
-        <v>40330</v>
+        <v>40391</v>
       </c>
       <c r="L60" t="s">
-        <v>689</v>
+        <v>440</v>
       </c>
       <c r="M60">
-        <v>1682</v>
+        <v>1070</v>
       </c>
       <c r="N60">
-        <v>1682</v>
+        <v>1070</v>
       </c>
       <c r="O60">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="P60">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="Q60">
-        <v>133546</v>
+        <v>125235</v>
       </c>
       <c r="R60">
-        <v>73230</v>
+        <v>75958</v>
       </c>
       <c r="S60" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>158</v>
+        <v>443</v>
       </c>
       <c r="E61" t="s">
-        <v>159</v>
+        <v>444</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>445</v>
       </c>
       <c r="G61" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="H61" t="s">
         <v>34</v>
       </c>
       <c r="I61" t="s">
-        <v>161</v>
+        <v>446</v>
       </c>
       <c r="J61" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K61" s="1">
-        <v>40315</v>
+        <v>41302</v>
       </c>
       <c r="L61" t="s">
-        <v>162</v>
+        <v>447</v>
       </c>
       <c r="M61">
-        <v>2995</v>
+        <v>1148</v>
       </c>
       <c r="N61">
-        <v>2995</v>
+        <v>1143</v>
       </c>
       <c r="O61">
-        <v>2467</v>
+        <v>888</v>
       </c>
       <c r="P61">
-        <v>2503</v>
+        <v>894</v>
       </c>
       <c r="Q61">
-        <v>1062189</v>
+        <v>159605</v>
       </c>
       <c r="R61">
-        <v>592817</v>
+        <v>90612</v>
       </c>
       <c r="S61" t="s">
-        <v>163</v>
+        <v>448</v>
       </c>
     </row>
     <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6605,9 +6598,9 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>467</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -6616,52 +6609,52 @@
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>275</v>
+        <v>468</v>
       </c>
       <c r="E65" t="s">
-        <v>276</v>
+        <v>469</v>
       </c>
       <c r="F65" t="s">
-        <v>277</v>
+        <v>470</v>
       </c>
       <c r="G65" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>278</v>
+        <v>471</v>
       </c>
       <c r="J65" t="s">
         <v>44</v>
       </c>
       <c r="K65" s="1">
-        <v>40308</v>
+        <v>39221</v>
       </c>
       <c r="L65" t="s">
-        <v>279</v>
+        <v>472</v>
       </c>
       <c r="M65">
-        <v>706</v>
+        <v>189</v>
       </c>
       <c r="N65">
-        <v>703</v>
+        <v>189</v>
       </c>
       <c r="O65">
-        <v>551</v>
+        <v>100</v>
       </c>
       <c r="P65">
-        <v>553</v>
+        <v>119</v>
       </c>
       <c r="Q65">
-        <v>118415</v>
+        <v>21844</v>
       </c>
       <c r="R65">
-        <v>61681</v>
+        <v>13246</v>
       </c>
       <c r="S65" t="s">
-        <v>280</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6723,9 +6716,9 @@
         <v>480</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>750</v>
+        <v>481</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -6734,52 +6727,52 @@
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>751</v>
+        <v>482</v>
       </c>
       <c r="E67" t="s">
-        <v>752</v>
+        <v>483</v>
       </c>
       <c r="F67" t="s">
-        <v>753</v>
+        <v>41</v>
       </c>
       <c r="G67" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>483</v>
       </c>
       <c r="I67" t="s">
-        <v>754</v>
+        <v>41</v>
       </c>
       <c r="J67" t="s">
         <v>44</v>
       </c>
       <c r="K67" s="1">
-        <v>40308</v>
+        <v>40351</v>
       </c>
       <c r="L67" t="s">
-        <v>755</v>
+        <v>484</v>
       </c>
       <c r="M67">
-        <v>261</v>
+        <v>17633</v>
       </c>
       <c r="N67">
-        <v>261</v>
+        <v>10714</v>
       </c>
       <c r="O67">
-        <v>229</v>
+        <v>6941</v>
       </c>
       <c r="P67">
-        <v>229</v>
+        <v>11900</v>
       </c>
       <c r="Q67">
-        <v>52231</v>
+        <v>2066536</v>
       </c>
       <c r="R67">
-        <v>26854</v>
+        <v>922958</v>
       </c>
       <c r="S67" t="s">
-        <v>756</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6841,9 +6834,9 @@
         <v>491</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>383</v>
+        <v>492</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -6852,52 +6845,52 @@
         <v>2</v>
       </c>
       <c r="D69" t="s">
-        <v>384</v>
+        <v>493</v>
       </c>
       <c r="E69" t="s">
-        <v>385</v>
+        <v>494</v>
       </c>
       <c r="F69" t="s">
-        <v>386</v>
+        <v>495</v>
       </c>
       <c r="G69" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="H69" t="s">
         <v>25</v>
       </c>
       <c r="I69" t="s">
-        <v>387</v>
+        <v>496</v>
       </c>
       <c r="J69" t="s">
         <v>44</v>
       </c>
       <c r="K69" s="1">
-        <v>40307</v>
+        <v>40410</v>
       </c>
       <c r="L69" t="s">
-        <v>388</v>
+        <v>497</v>
       </c>
       <c r="M69">
-        <v>1128</v>
+        <v>5068</v>
       </c>
       <c r="N69">
-        <v>1128</v>
+        <v>4664</v>
       </c>
       <c r="O69">
-        <v>483</v>
+        <v>966</v>
       </c>
       <c r="P69">
-        <v>488</v>
+        <v>1131</v>
       </c>
       <c r="Q69">
-        <v>158201</v>
+        <v>231162</v>
       </c>
       <c r="R69">
-        <v>107469</v>
+        <v>160360</v>
       </c>
       <c r="S69" t="s">
-        <v>389</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -6959,7 +6952,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>505</v>
       </c>
@@ -7018,68 +7011,68 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>232</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s">
         <v>20</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D72" t="s">
-        <v>233</v>
+        <v>513</v>
       </c>
       <c r="E72" t="s">
-        <v>234</v>
+        <v>514</v>
       </c>
       <c r="F72" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="G72" t="s">
         <v>130</v>
       </c>
       <c r="H72" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I72" t="s">
-        <v>236</v>
+        <v>515</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>516</v>
       </c>
       <c r="K72" s="1">
-        <v>40274</v>
+        <v>41445</v>
       </c>
       <c r="L72" t="s">
-        <v>237</v>
+        <v>517</v>
       </c>
       <c r="M72">
-        <v>147</v>
+        <v>867</v>
       </c>
       <c r="N72">
-        <v>147</v>
+        <v>867</v>
       </c>
       <c r="O72">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="P72">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="Q72">
-        <v>29943</v>
+        <v>73981</v>
       </c>
       <c r="R72">
-        <v>23012</v>
+        <v>48842</v>
       </c>
       <c r="S72" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -7088,175 +7081,175 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="E73" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F73" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G73" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="H73" t="s">
         <v>85</v>
       </c>
       <c r="I73" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="J73" t="s">
         <v>44</v>
       </c>
       <c r="K73" s="1">
-        <v>40267</v>
+        <v>40415</v>
       </c>
       <c r="L73" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="M73">
-        <v>308</v>
+        <v>3686</v>
       </c>
       <c r="N73">
-        <v>308</v>
+        <v>2054</v>
       </c>
       <c r="O73">
-        <v>207</v>
+        <v>1808</v>
       </c>
       <c r="P73">
-        <v>215</v>
+        <v>2952</v>
       </c>
       <c r="Q73">
-        <v>43018</v>
+        <v>644433</v>
       </c>
       <c r="R73">
-        <v>20637</v>
+        <v>397220</v>
       </c>
       <c r="S73" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>526</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D74" t="s">
-        <v>119</v>
+        <v>527</v>
       </c>
       <c r="E74" t="s">
-        <v>120</v>
+        <v>528</v>
       </c>
       <c r="F74" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
       </c>
       <c r="I74" t="s">
-        <v>123</v>
+        <v>529</v>
       </c>
       <c r="J74" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K74" s="1">
-        <v>40240</v>
+        <v>40203</v>
       </c>
       <c r="L74" t="s">
-        <v>124</v>
+        <v>530</v>
       </c>
       <c r="M74">
-        <v>122</v>
+        <v>858</v>
       </c>
       <c r="N74">
-        <v>122</v>
+        <v>858</v>
       </c>
       <c r="O74">
-        <v>99</v>
+        <v>398</v>
       </c>
       <c r="P74">
-        <v>99</v>
+        <v>398</v>
       </c>
       <c r="Q74">
-        <v>63030</v>
+        <v>67024</v>
       </c>
       <c r="R74">
-        <v>51860</v>
+        <v>37989</v>
       </c>
       <c r="S74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>623</v>
+        <v>532</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
       </c>
       <c r="C75">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>624</v>
+        <v>533</v>
       </c>
       <c r="E75" t="s">
-        <v>625</v>
+        <v>534</v>
       </c>
       <c r="F75" t="s">
-        <v>626</v>
+        <v>535</v>
       </c>
       <c r="G75" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="H75" t="s">
         <v>25</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>536</v>
       </c>
       <c r="J75" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K75" s="1">
-        <v>40234</v>
+        <v>41229</v>
       </c>
       <c r="L75" t="s">
-        <v>627</v>
+        <v>537</v>
       </c>
       <c r="M75">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="N75">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="O75">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="P75">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="Q75">
-        <v>15999</v>
+        <v>13359</v>
       </c>
       <c r="R75">
-        <v>9259</v>
+        <v>7428</v>
       </c>
       <c r="S75" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>329</v>
+        <v>539</v>
       </c>
       <c r="B76" t="s">
         <v>20</v>
@@ -7265,116 +7258,116 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>330</v>
+        <v>540</v>
       </c>
       <c r="E76" t="s">
-        <v>331</v>
+        <v>541</v>
       </c>
       <c r="F76" t="s">
-        <v>332</v>
+        <v>542</v>
       </c>
       <c r="G76" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I76" t="s">
-        <v>333</v>
+        <v>543</v>
       </c>
       <c r="J76" t="s">
         <v>44</v>
       </c>
       <c r="K76" s="1">
-        <v>40228</v>
+        <v>40267</v>
       </c>
       <c r="L76" t="s">
-        <v>334</v>
+        <v>544</v>
       </c>
       <c r="M76">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="N76">
-        <v>62</v>
+        <v>308</v>
       </c>
       <c r="O76">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="P76">
-        <v>60</v>
+        <v>215</v>
       </c>
       <c r="Q76">
-        <v>9910</v>
+        <v>43018</v>
       </c>
       <c r="R76">
-        <v>4807</v>
+        <v>20637</v>
       </c>
       <c r="S76" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>546</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>111</v>
+        <v>547</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>548</v>
       </c>
       <c r="F77" t="s">
-        <v>113</v>
+        <v>549</v>
       </c>
       <c r="G77" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I77" t="s">
-        <v>115</v>
+        <v>550</v>
       </c>
       <c r="J77" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K77" s="1">
-        <v>40225</v>
+        <v>41391</v>
       </c>
       <c r="L77" t="s">
-        <v>116</v>
+        <v>551</v>
       </c>
       <c r="M77">
-        <v>352</v>
+        <v>3729</v>
       </c>
       <c r="N77">
-        <v>349</v>
+        <v>3729</v>
       </c>
       <c r="O77">
-        <v>267</v>
+        <v>2103</v>
       </c>
       <c r="P77">
-        <v>270</v>
+        <v>2116</v>
       </c>
       <c r="Q77">
-        <v>47226</v>
+        <v>449614</v>
       </c>
       <c r="R77">
-        <v>23316</v>
+        <v>285804</v>
       </c>
       <c r="S77" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>377</v>
+        <v>553</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -7383,293 +7376,293 @@
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>378</v>
+        <v>554</v>
       </c>
       <c r="E78" t="s">
-        <v>379</v>
+        <v>555</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>556</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
       </c>
       <c r="I78" t="s">
-        <v>380</v>
+        <v>557</v>
       </c>
       <c r="J78" t="s">
         <v>44</v>
       </c>
       <c r="K78" s="1">
-        <v>40222</v>
+        <v>40384</v>
       </c>
       <c r="L78" t="s">
-        <v>381</v>
+        <v>558</v>
       </c>
       <c r="M78">
-        <v>1068</v>
+        <v>227</v>
       </c>
       <c r="N78">
-        <v>1045</v>
+        <v>204</v>
       </c>
       <c r="O78">
-        <v>941</v>
+        <v>184</v>
       </c>
       <c r="P78">
-        <v>958</v>
+        <v>207</v>
       </c>
       <c r="Q78">
-        <v>166730</v>
+        <v>30102</v>
       </c>
       <c r="R78">
-        <v>90831</v>
+        <v>13823</v>
       </c>
       <c r="S78" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="E79" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="F79" t="s">
-        <v>597</v>
+        <v>41</v>
       </c>
       <c r="G79" t="s">
         <v>24</v>
       </c>
       <c r="H79" t="s">
-        <v>346</v>
+        <v>25</v>
       </c>
       <c r="I79" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
       <c r="J79" t="s">
         <v>44</v>
       </c>
       <c r="K79" s="1">
-        <v>40211</v>
+        <v>40455</v>
       </c>
       <c r="L79" t="s">
-        <v>599</v>
+        <v>564</v>
       </c>
       <c r="M79">
-        <v>56</v>
+        <v>846</v>
       </c>
       <c r="N79">
-        <v>55</v>
+        <v>697</v>
       </c>
       <c r="O79">
-        <v>28</v>
+        <v>602</v>
       </c>
       <c r="P79">
-        <v>29</v>
+        <v>744</v>
       </c>
       <c r="Q79">
-        <v>11486</v>
+        <v>86278</v>
       </c>
       <c r="R79">
-        <v>6625</v>
+        <v>54336</v>
       </c>
       <c r="S79" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>526</v>
+        <v>566</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>527</v>
+        <v>567</v>
       </c>
       <c r="E80" t="s">
-        <v>528</v>
+        <v>568</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>569</v>
       </c>
       <c r="G80" t="s">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="H80" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I80" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="J80" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="K80" s="1">
-        <v>40203</v>
+        <v>40421</v>
       </c>
       <c r="L80" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="M80">
-        <v>858</v>
+        <v>2185</v>
       </c>
       <c r="N80">
-        <v>858</v>
+        <v>2185</v>
       </c>
       <c r="O80">
-        <v>398</v>
+        <v>1656</v>
       </c>
       <c r="P80">
-        <v>398</v>
+        <v>1679</v>
       </c>
       <c r="Q80">
-        <v>67024</v>
+        <v>362260</v>
       </c>
       <c r="R80">
-        <v>37989</v>
+        <v>258957</v>
       </c>
       <c r="S80" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>38</v>
+        <v>573</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>574</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>575</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>576</v>
       </c>
       <c r="G81" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I81" t="s">
-        <v>43</v>
+        <v>577</v>
       </c>
       <c r="J81" t="s">
         <v>44</v>
       </c>
       <c r="K81" s="1">
-        <v>40181</v>
+        <v>40407</v>
       </c>
       <c r="L81" t="s">
-        <v>45</v>
+        <v>578</v>
       </c>
       <c r="M81">
-        <v>863</v>
+        <v>273</v>
       </c>
       <c r="N81">
-        <v>862</v>
+        <v>273</v>
       </c>
       <c r="O81">
-        <v>478</v>
+        <v>273</v>
       </c>
       <c r="P81">
-        <v>485</v>
+        <v>273</v>
       </c>
       <c r="Q81">
-        <v>151006</v>
+        <v>76795</v>
       </c>
       <c r="R81">
-        <v>111725</v>
+        <v>51034</v>
       </c>
       <c r="S81" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>96</v>
+        <v>580</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>581</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>582</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>583</v>
       </c>
       <c r="G82" t="s">
         <v>99</v>
       </c>
       <c r="H82" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I82" t="s">
-        <v>100</v>
+        <v>584</v>
       </c>
       <c r="J82" t="s">
         <v>44</v>
       </c>
       <c r="K82" s="1">
-        <v>40181</v>
+        <v>40446</v>
       </c>
       <c r="L82" t="s">
-        <v>101</v>
+        <v>585</v>
       </c>
       <c r="M82">
-        <v>1663</v>
+        <v>1365</v>
       </c>
       <c r="N82">
-        <v>1327</v>
+        <v>1365</v>
       </c>
       <c r="O82">
-        <v>1173</v>
+        <v>1052</v>
       </c>
       <c r="P82">
-        <v>1309</v>
+        <v>1056</v>
       </c>
       <c r="Q82">
-        <v>240100</v>
+        <v>189954</v>
       </c>
       <c r="R82">
-        <v>115543</v>
+        <v>119529</v>
       </c>
       <c r="S82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>636</v>
+        <v>587</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -7678,57 +7671,57 @@
         <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>637</v>
+        <v>588</v>
       </c>
       <c r="E83" t="s">
-        <v>638</v>
+        <v>589</v>
       </c>
       <c r="F83" t="s">
-        <v>639</v>
+        <v>590</v>
       </c>
       <c r="G83" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="H83" t="s">
         <v>25</v>
       </c>
       <c r="I83" t="s">
-        <v>640</v>
+        <v>591</v>
       </c>
       <c r="J83" t="s">
         <v>44</v>
       </c>
       <c r="K83" s="1">
-        <v>40162</v>
+        <v>40036</v>
       </c>
       <c r="L83" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="M83">
-        <v>1786</v>
+        <v>3002</v>
       </c>
       <c r="N83">
-        <v>1785</v>
+        <v>3002</v>
       </c>
       <c r="O83">
-        <v>1405</v>
+        <v>2257</v>
       </c>
       <c r="P83">
-        <v>1406</v>
+        <v>2280</v>
       </c>
       <c r="Q83">
-        <v>269320</v>
+        <v>163640</v>
       </c>
       <c r="R83">
-        <v>143507</v>
+        <v>110378</v>
       </c>
       <c r="S83" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>594</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
@@ -7737,111 +7730,111 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>365</v>
+        <v>595</v>
       </c>
       <c r="E84" t="s">
-        <v>366</v>
+        <v>596</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>597</v>
       </c>
       <c r="G84" t="s">
         <v>24</v>
       </c>
       <c r="H84" t="s">
-        <v>25</v>
+        <v>346</v>
       </c>
       <c r="I84" t="s">
-        <v>367</v>
+        <v>598</v>
       </c>
       <c r="J84" t="s">
         <v>44</v>
       </c>
       <c r="K84" s="1">
-        <v>40106</v>
+        <v>40211</v>
       </c>
       <c r="L84" t="s">
-        <v>368</v>
+        <v>599</v>
       </c>
       <c r="M84">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="N84">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="O84">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="P84">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="Q84">
-        <v>21100</v>
+        <v>11486</v>
       </c>
       <c r="R84">
-        <v>13772</v>
+        <v>6625</v>
       </c>
       <c r="S84" t="s">
-        <v>369</v>
+        <v>600</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>205</v>
+        <v>601</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>206</v>
+        <v>602</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>603</v>
       </c>
       <c r="F85" t="s">
-        <v>208</v>
+        <v>604</v>
       </c>
       <c r="G85" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="H85" t="s">
         <v>25</v>
       </c>
       <c r="I85" t="s">
-        <v>209</v>
+        <v>605</v>
       </c>
       <c r="J85" t="s">
         <v>44</v>
       </c>
       <c r="K85" s="1">
-        <v>40046</v>
+        <v>40413</v>
       </c>
       <c r="L85" t="s">
-        <v>210</v>
+        <v>606</v>
       </c>
       <c r="M85">
-        <v>1744</v>
+        <v>33420</v>
       </c>
       <c r="N85">
-        <v>1715</v>
+        <v>31023</v>
       </c>
       <c r="O85">
-        <v>1023</v>
+        <v>12869</v>
       </c>
       <c r="P85">
-        <v>1053</v>
+        <v>13453</v>
       </c>
       <c r="Q85">
-        <v>181840</v>
+        <v>3197006</v>
       </c>
       <c r="R85">
-        <v>109096</v>
+        <v>1890536</v>
       </c>
       <c r="S85" t="s">
-        <v>211</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -7962,9 +7955,9 @@
         <v>622</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>743</v>
+        <v>623</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -7973,57 +7966,57 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>744</v>
+        <v>624</v>
       </c>
       <c r="E88" t="s">
-        <v>745</v>
+        <v>625</v>
       </c>
       <c r="F88" t="s">
-        <v>746</v>
+        <v>626</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="H88" t="s">
         <v>25</v>
       </c>
       <c r="I88" t="s">
-        <v>747</v>
+        <v>41</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88" s="1">
-        <v>40039</v>
+        <v>40234</v>
       </c>
       <c r="L88" t="s">
-        <v>748</v>
+        <v>627</v>
       </c>
       <c r="M88">
+        <v>255</v>
+      </c>
+      <c r="N88">
+        <v>242</v>
+      </c>
+      <c r="O88">
+        <v>163</v>
+      </c>
+      <c r="P88">
+        <v>170</v>
+      </c>
+      <c r="Q88">
+        <v>15999</v>
+      </c>
+      <c r="R88">
+        <v>9259</v>
+      </c>
+      <c r="S88" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>629</v>
-      </c>
-      <c r="N88">
-        <v>34</v>
-      </c>
-      <c r="O88">
-        <v>21</v>
-      </c>
-      <c r="P88">
-        <v>268</v>
-      </c>
-      <c r="Q88">
-        <v>4576</v>
-      </c>
-      <c r="R88">
-        <v>2196</v>
-      </c>
-      <c r="S88" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>587</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -8032,57 +8025,57 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="E89" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="F89" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H89" t="s">
         <v>25</v>
       </c>
       <c r="I89" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="J89" t="s">
         <v>44</v>
       </c>
       <c r="K89" s="1">
-        <v>40036</v>
+        <v>39852</v>
       </c>
       <c r="L89" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="M89">
-        <v>3002</v>
+        <v>926</v>
       </c>
       <c r="N89">
-        <v>3002</v>
+        <v>926</v>
       </c>
       <c r="O89">
-        <v>2257</v>
+        <v>751</v>
       </c>
       <c r="P89">
-        <v>2280</v>
+        <v>752</v>
       </c>
       <c r="Q89">
-        <v>163640</v>
+        <v>80971</v>
       </c>
       <c r="R89">
-        <v>110378</v>
+        <v>60875</v>
       </c>
       <c r="S89" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>422</v>
+        <v>636</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -8091,229 +8084,229 @@
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>423</v>
+        <v>637</v>
       </c>
       <c r="E90" t="s">
-        <v>424</v>
+        <v>638</v>
       </c>
       <c r="F90" t="s">
-        <v>425</v>
+        <v>639</v>
       </c>
       <c r="G90" t="s">
         <v>130</v>
       </c>
       <c r="H90" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I90" t="s">
-        <v>426</v>
+        <v>640</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90" s="1">
-        <v>39998</v>
+        <v>40162</v>
       </c>
       <c r="L90" t="s">
-        <v>427</v>
+        <v>641</v>
       </c>
       <c r="M90">
-        <v>255</v>
+        <v>1786</v>
       </c>
       <c r="N90">
-        <v>255</v>
+        <v>1785</v>
       </c>
       <c r="O90">
-        <v>175</v>
+        <v>1405</v>
       </c>
       <c r="P90">
-        <v>175</v>
+        <v>1406</v>
       </c>
       <c r="Q90">
-        <v>31296</v>
+        <v>269320</v>
       </c>
       <c r="R90">
-        <v>11931</v>
+        <v>143507</v>
       </c>
       <c r="S90" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>643</v>
       </c>
       <c r="B91" t="s">
         <v>20</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>371</v>
+        <v>644</v>
       </c>
       <c r="E91" t="s">
-        <v>372</v>
+        <v>645</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>646</v>
       </c>
       <c r="G91" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H91" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="I91" t="s">
-        <v>374</v>
+        <v>647</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91" s="1">
-        <v>39956</v>
+        <v>39573</v>
       </c>
       <c r="L91" t="s">
-        <v>375</v>
+        <v>648</v>
       </c>
       <c r="M91">
-        <v>15247</v>
+        <v>869</v>
       </c>
       <c r="N91">
-        <v>3612</v>
+        <v>849</v>
       </c>
       <c r="O91">
-        <v>2602</v>
+        <v>298</v>
       </c>
       <c r="P91">
-        <v>11456</v>
+        <v>317</v>
       </c>
       <c r="Q91">
-        <v>486511</v>
+        <v>72167</v>
       </c>
       <c r="R91">
-        <v>281643</v>
+        <v>44474</v>
       </c>
       <c r="S91" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>730</v>
+        <v>650</v>
       </c>
       <c r="B92" t="s">
         <v>20</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>731</v>
+        <v>651</v>
       </c>
       <c r="E92" t="s">
-        <v>732</v>
+        <v>652</v>
       </c>
       <c r="F92" t="s">
-        <v>733</v>
+        <v>653</v>
       </c>
       <c r="G92" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="H92" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I92" t="s">
-        <v>347</v>
+        <v>654</v>
       </c>
       <c r="J92" t="s">
         <v>44</v>
       </c>
       <c r="K92" s="1">
-        <v>39939</v>
+        <v>40367</v>
       </c>
       <c r="L92" t="s">
-        <v>734</v>
+        <v>655</v>
       </c>
       <c r="M92">
-        <v>1517</v>
+        <v>658</v>
       </c>
       <c r="N92">
-        <v>1502</v>
+        <v>658</v>
       </c>
       <c r="O92">
-        <v>1122</v>
+        <v>575</v>
       </c>
       <c r="P92">
-        <v>1124</v>
+        <v>575</v>
       </c>
       <c r="Q92">
-        <v>107697</v>
+        <v>101188</v>
       </c>
       <c r="R92">
-        <v>53367</v>
+        <v>55567</v>
       </c>
       <c r="S92" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>657</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>403</v>
+        <v>658</v>
       </c>
       <c r="E93" t="s">
-        <v>404</v>
+        <v>659</v>
       </c>
       <c r="F93" t="s">
-        <v>405</v>
+        <v>660</v>
       </c>
       <c r="G93" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H93" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I93" t="s">
-        <v>406</v>
+        <v>661</v>
       </c>
       <c r="J93" t="s">
         <v>44</v>
       </c>
       <c r="K93" s="1">
-        <v>39923</v>
+        <v>40351</v>
       </c>
       <c r="L93" t="s">
-        <v>407</v>
+        <v>662</v>
       </c>
       <c r="M93">
-        <v>857</v>
+        <v>287</v>
       </c>
       <c r="N93">
-        <v>649</v>
+        <v>286</v>
       </c>
       <c r="O93">
-        <v>606</v>
+        <v>213</v>
       </c>
       <c r="P93">
-        <v>789</v>
+        <v>221</v>
       </c>
       <c r="Q93">
-        <v>224889</v>
+        <v>59463</v>
       </c>
       <c r="R93">
-        <v>98078</v>
+        <v>26819</v>
       </c>
       <c r="S93" t="s">
-        <v>408</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -8434,9 +8427,9 @@
         <v>676</v>
       </c>
     </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>253</v>
+        <v>677</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -8445,57 +8438,57 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>678</v>
       </c>
       <c r="E96" t="s">
-        <v>255</v>
+        <v>679</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>680</v>
       </c>
       <c r="G96" t="s">
         <v>130</v>
       </c>
       <c r="H96" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I96" t="s">
-        <v>257</v>
+        <v>681</v>
       </c>
       <c r="J96" t="s">
         <v>44</v>
       </c>
       <c r="K96" s="1">
-        <v>39903</v>
+        <v>39826</v>
       </c>
       <c r="L96" t="s">
-        <v>258</v>
+        <v>682</v>
       </c>
       <c r="M96">
-        <v>1058</v>
+        <v>596</v>
       </c>
       <c r="N96">
-        <v>1058</v>
+        <v>587</v>
       </c>
       <c r="O96">
-        <v>506</v>
+        <v>529</v>
       </c>
       <c r="P96">
-        <v>510</v>
+        <v>537</v>
       </c>
       <c r="Q96">
-        <v>67286</v>
+        <v>92959</v>
       </c>
       <c r="R96">
-        <v>47051</v>
+        <v>50980</v>
       </c>
       <c r="S96" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
@@ -8504,57 +8497,57 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="E97" t="s">
-        <v>631</v>
+        <v>686</v>
       </c>
       <c r="F97" t="s">
-        <v>632</v>
+        <v>687</v>
       </c>
       <c r="G97" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H97" t="s">
         <v>25</v>
       </c>
       <c r="I97" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="J97" t="s">
         <v>44</v>
       </c>
       <c r="K97" s="1">
-        <v>39852</v>
+        <v>40330</v>
       </c>
       <c r="L97" t="s">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="M97">
-        <v>926</v>
+        <v>1682</v>
       </c>
       <c r="N97">
-        <v>926</v>
+        <v>1682</v>
       </c>
       <c r="O97">
-        <v>751</v>
+        <v>620</v>
       </c>
       <c r="P97">
-        <v>752</v>
+        <v>620</v>
       </c>
       <c r="Q97">
-        <v>80971</v>
+        <v>133546</v>
       </c>
       <c r="R97">
-        <v>60875</v>
+        <v>73230</v>
       </c>
       <c r="S97" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -8563,52 +8556,52 @@
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>678</v>
+        <v>365</v>
       </c>
       <c r="E98" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="F98" t="s">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H98" t="s">
         <v>25</v>
       </c>
       <c r="I98" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="J98" t="s">
         <v>44</v>
       </c>
       <c r="K98" s="1">
-        <v>39826</v>
+        <v>38710</v>
       </c>
       <c r="L98" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="M98">
-        <v>596</v>
+        <v>286</v>
       </c>
       <c r="N98">
-        <v>587</v>
+        <v>285</v>
       </c>
       <c r="O98">
-        <v>529</v>
+        <v>198</v>
       </c>
       <c r="P98">
-        <v>537</v>
+        <v>199</v>
       </c>
       <c r="Q98">
-        <v>92959</v>
+        <v>35388</v>
       </c>
       <c r="R98">
-        <v>50980</v>
+        <v>28394</v>
       </c>
       <c r="S98" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -8670,181 +8663,181 @@
         <v>702</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>703</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="s">
-        <v>165</v>
+        <v>704</v>
       </c>
       <c r="E100" t="s">
-        <v>166</v>
+        <v>705</v>
       </c>
       <c r="F100" t="s">
-        <v>167</v>
+        <v>706</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="H100" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I100" t="s">
-        <v>168</v>
+        <v>707</v>
       </c>
       <c r="J100" t="s">
         <v>44</v>
       </c>
       <c r="K100" s="1">
-        <v>39809</v>
+        <v>40471</v>
       </c>
       <c r="L100" t="s">
-        <v>169</v>
+        <v>708</v>
       </c>
       <c r="M100">
-        <v>131</v>
+        <v>3398</v>
       </c>
       <c r="N100">
-        <v>131</v>
+        <v>3089</v>
       </c>
       <c r="O100">
-        <v>118</v>
+        <v>2442</v>
       </c>
       <c r="P100">
-        <v>118</v>
+        <v>2745</v>
       </c>
       <c r="Q100">
-        <v>23247</v>
+        <v>369268</v>
       </c>
       <c r="R100">
-        <v>11832</v>
+        <v>160302</v>
       </c>
       <c r="S100" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>643</v>
+        <v>710</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="C101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="s">
-        <v>644</v>
+        <v>711</v>
       </c>
       <c r="E101" t="s">
-        <v>645</v>
+        <v>712</v>
       </c>
       <c r="F101" t="s">
-        <v>646</v>
+        <v>713</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="H101" t="s">
         <v>34</v>
       </c>
       <c r="I101" t="s">
-        <v>647</v>
+        <v>714</v>
       </c>
       <c r="J101" t="s">
         <v>44</v>
       </c>
       <c r="K101" s="1">
-        <v>39573</v>
+        <v>40344</v>
       </c>
       <c r="L101" t="s">
-        <v>648</v>
+        <v>715</v>
       </c>
       <c r="M101">
-        <v>869</v>
+        <v>2211</v>
       </c>
       <c r="N101">
-        <v>849</v>
+        <v>169</v>
       </c>
       <c r="O101">
-        <v>298</v>
+        <v>67</v>
       </c>
       <c r="P101">
-        <v>317</v>
+        <v>1142</v>
       </c>
       <c r="Q101">
-        <v>72167</v>
+        <v>9082</v>
       </c>
       <c r="R101">
-        <v>44474</v>
+        <v>6944</v>
       </c>
       <c r="S101" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>717</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" t="s">
-        <v>127</v>
+        <v>718</v>
       </c>
       <c r="E102" t="s">
-        <v>128</v>
+        <v>719</v>
       </c>
       <c r="F102" t="s">
-        <v>129</v>
+        <v>720</v>
       </c>
       <c r="G102" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="H102" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I102" t="s">
-        <v>131</v>
+        <v>721</v>
       </c>
       <c r="J102" t="s">
         <v>44</v>
       </c>
       <c r="K102" s="1">
-        <v>39553</v>
+        <v>40406</v>
       </c>
       <c r="L102" t="s">
-        <v>132</v>
+        <v>722</v>
       </c>
       <c r="M102">
-        <v>458</v>
+        <v>1238</v>
       </c>
       <c r="N102">
-        <v>458</v>
+        <v>1074</v>
       </c>
       <c r="O102">
-        <v>273</v>
+        <v>844</v>
       </c>
       <c r="P102">
-        <v>274</v>
+        <v>1002</v>
       </c>
       <c r="Q102">
-        <v>63852</v>
+        <v>136865</v>
       </c>
       <c r="R102">
-        <v>27635</v>
+        <v>74670</v>
       </c>
       <c r="S102" t="s">
-        <v>133</v>
+        <v>723</v>
       </c>
     </row>
     <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -8906,127 +8899,127 @@
         <v>729</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>467</v>
+        <v>730</v>
       </c>
       <c r="B104" t="s">
         <v>20</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>468</v>
+        <v>731</v>
       </c>
       <c r="E104" t="s">
-        <v>469</v>
+        <v>732</v>
       </c>
       <c r="F104" t="s">
-        <v>470</v>
+        <v>733</v>
       </c>
       <c r="G104" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="H104" t="s">
         <v>25</v>
       </c>
       <c r="I104" t="s">
-        <v>471</v>
+        <v>347</v>
       </c>
       <c r="J104" t="s">
         <v>44</v>
       </c>
       <c r="K104" s="1">
-        <v>39221</v>
+        <v>39939</v>
       </c>
       <c r="L104" t="s">
-        <v>472</v>
+        <v>734</v>
       </c>
       <c r="M104">
-        <v>189</v>
+        <v>1517</v>
       </c>
       <c r="N104">
-        <v>189</v>
+        <v>1502</v>
       </c>
       <c r="O104">
-        <v>100</v>
+        <v>1122</v>
       </c>
       <c r="P104">
-        <v>119</v>
+        <v>1124</v>
       </c>
       <c r="Q104">
-        <v>21844</v>
+        <v>107697</v>
       </c>
       <c r="R104">
-        <v>13246</v>
+        <v>53367</v>
       </c>
       <c r="S104" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>736</v>
       </c>
       <c r="B105" t="s">
         <v>20</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>303</v>
+        <v>737</v>
       </c>
       <c r="E105" t="s">
-        <v>304</v>
+        <v>738</v>
       </c>
       <c r="F105" t="s">
-        <v>305</v>
+        <v>739</v>
       </c>
       <c r="G105" t="s">
         <v>99</v>
       </c>
       <c r="H105" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I105" t="s">
-        <v>306</v>
+        <v>740</v>
       </c>
       <c r="J105" t="s">
         <v>44</v>
       </c>
       <c r="K105" s="1">
-        <v>39088</v>
+        <v>40401</v>
       </c>
       <c r="L105" t="s">
-        <v>307</v>
+        <v>741</v>
       </c>
       <c r="M105">
-        <v>170</v>
+        <v>1857</v>
       </c>
       <c r="N105">
-        <v>170</v>
+        <v>1739</v>
       </c>
       <c r="O105">
-        <v>150</v>
+        <v>1157</v>
       </c>
       <c r="P105">
-        <v>150</v>
+        <v>1274</v>
       </c>
       <c r="Q105">
-        <v>21926</v>
+        <v>329550</v>
       </c>
       <c r="R105">
-        <v>9722</v>
+        <v>166478</v>
       </c>
       <c r="S105" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>743</v>
       </c>
       <c r="B106" t="s">
         <v>20</v>
@@ -9035,57 +9028,57 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>247</v>
+        <v>744</v>
       </c>
       <c r="E106" t="s">
-        <v>248</v>
+        <v>745</v>
       </c>
       <c r="F106" t="s">
-        <v>249</v>
+        <v>746</v>
       </c>
       <c r="G106" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="H106" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I106" t="s">
-        <v>250</v>
+        <v>747</v>
       </c>
       <c r="J106" t="s">
         <v>44</v>
       </c>
       <c r="K106" s="1">
-        <v>38822</v>
+        <v>40039</v>
       </c>
       <c r="L106" t="s">
-        <v>251</v>
+        <v>748</v>
       </c>
       <c r="M106">
-        <v>809</v>
+        <v>629</v>
       </c>
       <c r="N106">
-        <v>790</v>
+        <v>34</v>
       </c>
       <c r="O106">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="P106">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="Q106">
-        <v>68826</v>
+        <v>4576</v>
       </c>
       <c r="R106">
-        <v>52653</v>
+        <v>2196</v>
       </c>
       <c r="S106" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>691</v>
+        <v>750</v>
       </c>
       <c r="B107" t="s">
         <v>20</v>
@@ -9094,57 +9087,57 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>365</v>
+        <v>751</v>
       </c>
       <c r="E107" t="s">
-        <v>692</v>
+        <v>752</v>
       </c>
       <c r="F107" t="s">
-        <v>693</v>
+        <v>753</v>
       </c>
       <c r="G107" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="I107" t="s">
-        <v>694</v>
+        <v>754</v>
       </c>
       <c r="J107" t="s">
         <v>44</v>
       </c>
       <c r="K107" s="1">
-        <v>38710</v>
+        <v>40308</v>
       </c>
       <c r="L107" t="s">
-        <v>695</v>
+        <v>755</v>
       </c>
       <c r="M107">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="N107">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="O107">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="P107">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="Q107">
-        <v>35388</v>
+        <v>52231</v>
       </c>
       <c r="R107">
-        <v>28394</v>
+        <v>26854</v>
       </c>
       <c r="S107" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>89</v>
+        <v>757</v>
       </c>
       <c r="B108" t="s">
         <v>20</v>
@@ -9153,170 +9146,170 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>90</v>
+        <v>758</v>
       </c>
       <c r="E108" t="s">
-        <v>91</v>
+        <v>759</v>
       </c>
       <c r="F108" t="s">
-        <v>92</v>
+        <v>760</v>
       </c>
       <c r="G108" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="H108" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="I108" t="s">
-        <v>93</v>
+        <v>761</v>
       </c>
       <c r="J108" t="s">
         <v>44</v>
       </c>
       <c r="K108" s="1">
-        <v>38611</v>
+        <v>40777</v>
       </c>
       <c r="L108" t="s">
-        <v>94</v>
+        <v>762</v>
       </c>
       <c r="M108">
-        <v>586</v>
+        <v>724</v>
       </c>
       <c r="N108">
-        <v>586</v>
+        <v>724</v>
       </c>
       <c r="O108">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="P108">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="Q108">
-        <v>148067</v>
+        <v>92502</v>
       </c>
       <c r="R108">
-        <v>81306</v>
+        <v>49933</v>
       </c>
       <c r="S108" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>764</v>
       </c>
       <c r="B109" t="s">
         <v>20</v>
       </c>
       <c r="C109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>191</v>
+        <v>765</v>
       </c>
       <c r="E109" t="s">
-        <v>192</v>
+        <v>766</v>
       </c>
       <c r="F109" t="s">
-        <v>193</v>
+        <v>767</v>
       </c>
       <c r="G109" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="H109" t="s">
-        <v>85</v>
+        <v>346</v>
       </c>
       <c r="I109" t="s">
-        <v>194</v>
+        <v>768</v>
       </c>
       <c r="J109" t="s">
         <v>44</v>
       </c>
       <c r="K109" s="1">
-        <v>38515</v>
+        <v>37536</v>
       </c>
       <c r="L109" t="s">
-        <v>195</v>
+        <v>769</v>
       </c>
       <c r="M109">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="N109">
-        <v>330</v>
+        <v>104</v>
       </c>
       <c r="O109">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c r="P109">
-        <v>193</v>
+        <v>88</v>
       </c>
       <c r="Q109">
-        <v>39237</v>
+        <v>14709</v>
       </c>
       <c r="R109">
-        <v>25806</v>
+        <v>8212</v>
       </c>
       <c r="S109" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>343</v>
+        <v>771</v>
       </c>
       <c r="B110" t="s">
         <v>20</v>
       </c>
       <c r="C110">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D110" t="s">
-        <v>344</v>
+        <v>772</v>
       </c>
       <c r="E110" t="s">
-        <v>345</v>
+        <v>773</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>774</v>
       </c>
       <c r="G110" t="s">
         <v>130</v>
       </c>
       <c r="H110" t="s">
-        <v>346</v>
+        <v>34</v>
       </c>
       <c r="I110" t="s">
-        <v>347</v>
+        <v>775</v>
       </c>
       <c r="J110" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="K110" s="1">
-        <v>38153</v>
+        <v>41326</v>
       </c>
       <c r="L110" t="s">
-        <v>348</v>
+        <v>776</v>
       </c>
       <c r="M110">
-        <v>340</v>
+        <v>2392</v>
       </c>
       <c r="N110">
-        <v>340</v>
+        <v>2390</v>
       </c>
       <c r="O110">
-        <v>270</v>
+        <v>1047</v>
       </c>
       <c r="P110">
-        <v>271</v>
+        <v>1050</v>
       </c>
       <c r="Q110">
-        <v>54407</v>
+        <v>470359</v>
       </c>
       <c r="R110">
-        <v>27003</v>
+        <v>247805</v>
       </c>
       <c r="S110" t="s">
-        <v>349</v>
+        <v>777</v>
       </c>
     </row>
     <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -9378,63 +9371,63 @@
         <v>784</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="E112" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="F112" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
       <c r="G112" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="H112" t="s">
-        <v>346</v>
+        <v>69</v>
       </c>
       <c r="I112" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="J112" t="s">
         <v>44</v>
       </c>
       <c r="K112" s="1">
-        <v>37536</v>
+        <v>40347</v>
       </c>
       <c r="L112" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="M112">
-        <v>104</v>
+        <v>1112</v>
       </c>
       <c r="N112">
-        <v>104</v>
+        <v>948</v>
       </c>
       <c r="O112">
-        <v>87</v>
+        <v>705</v>
       </c>
       <c r="P112">
-        <v>88</v>
+        <v>849</v>
       </c>
       <c r="Q112">
-        <v>14709</v>
+        <v>216254</v>
       </c>
       <c r="R112">
-        <v>8212</v>
+        <v>129164</v>
       </c>
       <c r="S112" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
     </row>
     <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
@@ -9498,8 +9491,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
